--- a/Output/R1_201908/Country/USD/TH/PHILIPPINES_201908_USD_TH.xlsx
+++ b/Output/R1_201908/Country/USD/TH/PHILIPPINES_201908_USD_TH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tradestat_formal\Output\R1_201908\Country\USD\TH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\Output\R1_201908\Country\USD\TH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC70057B-BAEC-4EED-AC70-A7A4DD3AA23B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFAB8C8-357A-42FF-893C-58EEB42CF735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD_TH" sheetId="1" r:id="rId1"/>
@@ -258,13 +258,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -291,13 +291,6 @@
     <font>
       <sz val="7.5"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,7 +333,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -348,7 +341,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,13 +358,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,20 +670,20 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -704,14 +697,14 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -721,7 +714,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
@@ -732,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -761,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -793,7 +786,7 @@
         <v>22.901550048599169</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -825,7 +818,7 @@
         <v>2.804678174853303</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -857,7 +850,7 @@
         <v>23.201041833955969</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -889,7 +882,7 @@
         <v>-16.069148499597759</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -921,7 +914,7 @@
         <v>-5.9604657743014826</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -953,7 +946,7 @@
         <v>-5.6629410573308281</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -973,7 +966,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
@@ -984,7 +977,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="15">
         <v>2016</v>
       </c>
@@ -1003,7 +996,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1035,12 +1028,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1068,7 @@
         <v>62.997565036551308</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1103,7 @@
         <v>16.31615675169888</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1145,7 +1138,7 @@
         <v>18.865143567660919</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
@@ -1180,7 +1173,7 @@
         <v>-1.4462089597028549</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -1215,7 +1208,7 @@
         <v>-10.198986340836599</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1243,7 @@
         <v>64.492356104433355</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1285,7 +1278,7 @@
         <v>-12.19236970487022</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1313,7 @@
         <v>21.427333851116568</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>39</v>
       </c>
@@ -1355,7 +1348,7 @@
         <v>-8.8077716982779002</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>41</v>
       </c>
@@ -1390,7 +1383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
@@ -1425,7 +1418,7 @@
         <v>13.26063781221705</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -1437,7 +1430,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>45</v>
@@ -1452,7 +1445,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>46</v>
       </c>
@@ -1487,7 +1480,7 @@
         <v>15.31873160478361</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
@@ -1522,7 +1515,7 @@
         <v>85.409191195247374</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>48</v>
       </c>
@@ -1557,7 +1550,7 @@
         <v>13.09282179653788</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>50</v>
       </c>
@@ -1592,7 +1585,7 @@
         <v>12.364116075496341</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>52</v>
       </c>
@@ -1627,7 +1620,7 @@
         <v>-5.2867631300005824</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>54</v>
       </c>
@@ -1662,7 +1655,7 @@
         <v>5.4559981737244634</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>56</v>
       </c>
@@ -1697,7 +1690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>58</v>
       </c>
@@ -1732,7 +1725,7 @@
         <v>-42.573170689240897</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>60</v>
       </c>
@@ -1767,7 +1760,7 @@
         <v>136.7895363163347</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>62</v>
       </c>
@@ -1802,7 +1795,7 @@
         <v>-6.7744069708393084</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
@@ -1837,7 +1830,7 @@
         <v>-50.286630713769419</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
@@ -1849,7 +1842,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="3" t="s">
         <v>64</v>
@@ -1864,7 +1857,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +1892,7 @@
         <v>62.998172718102687</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>25</v>
       </c>
@@ -1934,7 +1927,7 @@
         <v>16.31615675169888</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>27</v>
       </c>
@@ -1969,7 +1962,7 @@
         <v>18.066546671601991</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>29</v>
       </c>
@@ -2004,7 +1997,7 @@
         <v>-1.024231903665596</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>31</v>
       </c>
@@ -2039,7 +2032,7 @@
         <v>-9.7056191093539681</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>33</v>
       </c>
@@ -2074,7 +2067,7 @@
         <v>64.509925192415636</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>35</v>
       </c>
@@ -2109,7 +2102,7 @@
         <v>-12.196609746092561</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>37</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>21.420261682581309</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>39</v>
       </c>
@@ -2179,7 +2172,7 @@
         <v>-8.8077716982779002</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>44</v>
       </c>
@@ -2249,7 +2242,7 @@
         <v>13.83550249036214</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
@@ -2261,7 +2254,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="3" t="s">
         <v>65</v>
@@ -2276,7 +2269,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -2311,7 +2304,7 @@
         <v>-10.84370120567427</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
@@ -2346,7 +2339,7 @@
         <v>-8.8138050593359765</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>23</v>
       </c>
@@ -2381,7 +2374,7 @@
         <v>10.14283427569524</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>25</v>
       </c>
@@ -2416,7 +2409,7 @@
         <v>-50.005288513978329</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>35</v>
       </c>
@@ -2451,7 +2444,7 @@
         <v>-15.662424222842921</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>31</v>
       </c>
@@ -2486,7 +2479,7 @@
         <v>-18.62810876057825</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>37</v>
       </c>
@@ -2521,7 +2514,7 @@
         <v>-63.415216785813101</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2549,7 @@
         <v>204.7886930106587</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>69</v>
       </c>
@@ -2591,7 +2584,7 @@
         <v>-0.68516682987951327</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>71</v>
       </c>
@@ -2626,7 +2619,7 @@
         <v>5.4764478714670162</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>44</v>
       </c>
@@ -2661,7 +2654,7 @@
         <v>-39.779087783763153</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="C68" s="10"/>
       <c r="D68" s="11"/>
@@ -2673,7 +2666,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
@@ -2685,7 +2678,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
@@ -2697,7 +2690,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>73</v>
       </c>
@@ -2712,7 +2705,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>74</v>
       </c>
@@ -2727,7 +2720,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>75</v>
       </c>
@@ -2744,7 +2737,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -2756,7 +2749,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
@@ -2768,7 +2761,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
@@ -2780,7 +2773,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
@@ -2792,7 +2785,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
@@ -2804,7 +2797,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
@@ -2816,7 +2809,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
@@ -2828,7 +2821,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
@@ -2840,7 +2833,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
@@ -2852,7 +2845,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
@@ -2864,7 +2857,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
@@ -2876,7 +2869,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="11"/>
@@ -2888,7 +2881,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="11"/>
@@ -2900,7 +2893,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
@@ -2912,7 +2905,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
@@ -2924,7 +2917,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
@@ -2936,7 +2929,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="11"/>
@@ -2948,7 +2941,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="C91" s="10"/>
       <c r="D91" s="11"/>
@@ -2960,7 +2953,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="C92" s="10"/>
       <c r="D92" s="11"/>
@@ -2972,7 +2965,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
@@ -2984,7 +2977,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
@@ -2996,7 +2989,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
@@ -3008,7 +3001,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
@@ -3020,7 +3013,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
@@ -3032,7 +3025,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
@@ -3044,7 +3037,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="C99" s="10"/>
       <c r="D99" s="11"/>
@@ -3056,7 +3049,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
@@ -3068,7 +3061,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
@@ -3080,7 +3073,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
@@ -3092,7 +3085,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
@@ -3104,7 +3097,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
@@ -3116,7 +3109,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
@@ -3128,7 +3121,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
@@ -3140,7 +3133,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11"/>
@@ -3152,7 +3145,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
@@ -3164,7 +3157,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
@@ -3176,7 +3169,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
@@ -3188,7 +3181,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
@@ -3200,7 +3193,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
@@ -3212,7 +3205,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
@@ -3224,7 +3217,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
@@ -3236,7 +3229,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="11"/>
@@ -3248,7 +3241,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
@@ -3260,7 +3253,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="11"/>
@@ -3272,7 +3265,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="11"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
@@ -3284,7 +3277,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="C119" s="10"/>
       <c r="D119" s="11"/>
@@ -3296,7 +3289,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="C120" s="10"/>
       <c r="D120" s="11"/>
@@ -3308,7 +3301,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="C121" s="10"/>
       <c r="D121" s="11"/>
@@ -3320,7 +3313,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
@@ -3332,7 +3325,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="C123" s="10"/>
       <c r="D123" s="11"/>
@@ -3344,7 +3337,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="11"/>
@@ -3356,7 +3349,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="11"/>
@@ -3368,7 +3361,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="11"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="11"/>
@@ -3380,7 +3373,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="11"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="C127" s="10"/>
       <c r="D127" s="11"/>
@@ -3392,7 +3385,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="11"/>
@@ -3404,7 +3397,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="C129" s="10"/>
       <c r="D129" s="11"/>
@@ -3416,7 +3409,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="C130" s="10"/>
       <c r="D130" s="11"/>
@@ -3428,7 +3421,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="C131" s="10"/>
       <c r="D131" s="11"/>
@@ -3440,7 +3433,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="11"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
@@ -3452,7 +3445,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="11"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="C133" s="10"/>
       <c r="D133" s="11"/>
@@ -3464,7 +3457,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
@@ -3476,7 +3469,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="11"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
@@ -3488,7 +3481,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="11"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="11"/>
@@ -3500,7 +3493,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="11"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
@@ -3512,7 +3505,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="11"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="11"/>
@@ -3524,7 +3517,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="11"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="C139" s="10"/>
       <c r="D139" s="11"/>
@@ -3536,7 +3529,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="11"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="11"/>
@@ -3548,7 +3541,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="11"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
@@ -3560,7 +3553,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="11"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="C142" s="10"/>
       <c r="D142" s="11"/>
@@ -3572,7 +3565,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="11"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
@@ -3584,7 +3577,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="11"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
@@ -3596,7 +3589,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="11"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="11"/>
@@ -3608,7 +3601,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
@@ -3620,7 +3613,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="11"/>
@@ -3632,7 +3625,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="11"/>
@@ -3644,7 +3637,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="11"/>
@@ -3656,7 +3649,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="11"/>
@@ -3668,7 +3661,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="C151" s="10"/>
       <c r="D151" s="11"/>
@@ -3680,7 +3673,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="C152" s="10"/>
       <c r="D152" s="11"/>
@@ -3692,7 +3685,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="11"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
       <c r="C153" s="10"/>
       <c r="D153" s="11"/>
@@ -3704,7 +3697,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="C154" s="10"/>
       <c r="D154" s="11"/>
@@ -3716,7 +3709,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="C155" s="10"/>
       <c r="D155" s="11"/>
@@ -3728,7 +3721,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="11"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
@@ -3740,7 +3733,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
@@ -3752,7 +3745,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="11"/>
@@ -3764,7 +3757,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
@@ -3776,7 +3769,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="11"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
@@ -3788,7 +3781,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="11"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="C161" s="10"/>
       <c r="D161" s="11"/>
@@ -3800,7 +3793,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="11"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="11"/>
@@ -3812,7 +3805,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
@@ -3824,7 +3817,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="C164" s="10"/>
       <c r="D164" s="11"/>
@@ -3836,7 +3829,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
@@ -3848,7 +3841,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
@@ -3860,7 +3853,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="11"/>
@@ -3872,7 +3865,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="C168" s="10"/>
       <c r="D168" s="11"/>
@@ -3884,7 +3877,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="11"/>
@@ -3896,7 +3889,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="11"/>
@@ -3908,7 +3901,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="11"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11"/>
@@ -3920,7 +3913,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
@@ -3932,7 +3925,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="11"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="C173" s="10"/>
       <c r="D173" s="11"/>
@@ -3944,7 +3937,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="11"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
       <c r="C174" s="10"/>
       <c r="D174" s="11"/>
@@ -3956,7 +3949,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="11"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="C175" s="10"/>
       <c r="D175" s="11"/>
@@ -3968,7 +3961,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="11"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
       <c r="C176" s="10"/>
       <c r="D176" s="11"/>
@@ -3980,7 +3973,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="11"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
       <c r="C177" s="10"/>
       <c r="D177" s="11"/>
@@ -3992,7 +3985,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="11"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
@@ -4004,7 +3997,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
@@ -4016,7 +4009,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="11"/>
@@ -4028,7 +4021,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="11"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
@@ -4040,7 +4033,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="11"/>
@@ -4052,7 +4045,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="11"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="C183" s="10"/>
       <c r="D183" s="11"/>
@@ -4064,7 +4057,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="11"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="11"/>
@@ -4076,7 +4069,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="11"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
@@ -4088,7 +4081,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
       <c r="C186" s="10"/>
       <c r="D186" s="11"/>
@@ -4100,7 +4093,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
@@ -4112,7 +4105,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
@@ -4124,7 +4117,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="11"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="11"/>
@@ -4136,7 +4129,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
       <c r="C190" s="10"/>
       <c r="D190" s="11"/>
@@ -4148,7 +4141,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="11"/>
@@ -4160,7 +4153,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="11"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="11"/>
@@ -4172,7 +4165,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="11"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="11"/>
@@ -4184,7 +4177,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="11"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="11"/>
@@ -4196,7 +4189,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="11"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
       <c r="C195" s="10"/>
       <c r="D195" s="11"/>
@@ -4208,7 +4201,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="11"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
       <c r="C196" s="10"/>
       <c r="D196" s="11"/>
@@ -4220,7 +4213,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
       <c r="C197" s="10"/>
       <c r="D197" s="11"/>
@@ -4232,7 +4225,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
       <c r="C198" s="10"/>
       <c r="D198" s="11"/>
@@ -4244,7 +4237,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="11"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
       <c r="C199" s="10"/>
       <c r="D199" s="11"/>
@@ -4256,7 +4249,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
@@ -4268,7 +4261,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="11"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
       <c r="C201" s="10"/>
       <c r="D201" s="11"/>
@@ -4280,7 +4273,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="11"/>
@@ -4292,7 +4285,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
@@ -4304,7 +4297,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="11"/>
@@ -4316,7 +4309,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="11"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
       <c r="C205" s="10"/>
       <c r="D205" s="11"/>
@@ -4328,7 +4321,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="11"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="11"/>
@@ -4340,7 +4333,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="11"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
@@ -4352,7 +4345,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="11"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
       <c r="C208" s="10"/>
       <c r="D208" s="11"/>
@@ -4364,7 +4357,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="11"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="11"/>
@@ -4376,7 +4369,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="11"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="11"/>
@@ -4388,7 +4381,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="11"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="11"/>
@@ -4400,7 +4393,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="11"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="11"/>
@@ -4412,7 +4405,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="11"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="11"/>
@@ -4424,7 +4417,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="11"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="11"/>
@@ -4436,7 +4429,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="11"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="11"/>
@@ -4448,7 +4441,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="11"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="11"/>
@@ -4460,7 +4453,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="11"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
       <c r="C217" s="10"/>
       <c r="D217" s="11"/>
@@ -4472,7 +4465,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="11"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
       <c r="C218" s="10"/>
       <c r="D218" s="11"/>
@@ -4484,7 +4477,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="11"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
       <c r="C219" s="10"/>
       <c r="D219" s="11"/>
@@ -4496,7 +4489,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="11"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
       <c r="C220" s="10"/>
       <c r="D220" s="11"/>
@@ -4508,7 +4501,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="11"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
       <c r="C221" s="10"/>
       <c r="D221" s="11"/>
@@ -4520,7 +4513,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="11"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="11"/>
@@ -4532,7 +4525,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="11"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
       <c r="C223" s="10"/>
       <c r="D223" s="11"/>
@@ -4544,7 +4537,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="11"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="11"/>
@@ -4556,7 +4549,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="11"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
@@ -4568,7 +4561,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="11"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="11"/>
@@ -4580,7 +4573,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="11"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="9"/>
       <c r="C227" s="10"/>
       <c r="D227" s="11"/>
@@ -4592,7 +4585,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="11"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="11"/>
@@ -4604,7 +4597,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="11"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
@@ -4616,7 +4609,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="11"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
       <c r="C230" s="10"/>
       <c r="D230" s="11"/>
@@ -4628,7 +4621,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="11"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11"/>
@@ -4640,7 +4633,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="11"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="11"/>
@@ -4652,7 +4645,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="11"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="11"/>
@@ -4664,7 +4657,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="11"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
       <c r="C234" s="10"/>
       <c r="D234" s="11"/>
@@ -4676,7 +4669,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="11"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="11"/>
@@ -4688,7 +4681,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="11"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="11"/>
@@ -4700,7 +4693,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="11"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="11"/>
@@ -4712,7 +4705,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="11"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="11"/>
@@ -4724,7 +4717,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="11"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
       <c r="C239" s="10"/>
       <c r="D239" s="11"/>
@@ -4736,7 +4729,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="11"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
       <c r="C240" s="10"/>
       <c r="D240" s="11"/>
@@ -4748,7 +4741,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="11"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
       <c r="C241" s="10"/>
       <c r="D241" s="11"/>
@@ -4760,7 +4753,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="11"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
       <c r="C242" s="10"/>
       <c r="D242" s="11"/>
@@ -4772,7 +4765,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="11"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="C243" s="10"/>
       <c r="D243" s="11"/>
@@ -4784,7 +4777,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="11"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="11"/>
@@ -4796,7 +4789,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="11"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="C245" s="10"/>
       <c r="D245" s="11"/>
@@ -4808,7 +4801,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="11"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="11"/>
@@ -4820,7 +4813,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="11"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
@@ -4832,7 +4825,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="11"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="11"/>
@@ -4844,7 +4837,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="C249" s="10"/>
       <c r="D249" s="11"/>
@@ -4856,7 +4849,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="11"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="11"/>
@@ -4868,7 +4861,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="11"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
@@ -4880,7 +4873,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="11"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
       <c r="C252" s="10"/>
       <c r="D252" s="11"/>
@@ -4892,7 +4885,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="11"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="11"/>
@@ -4904,7 +4897,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="11"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="11"/>
@@ -4916,7 +4909,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="11"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="11"/>
@@ -4928,7 +4921,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="11"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
       <c r="C256" s="10"/>
       <c r="D256" s="11"/>
@@ -4940,7 +4933,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="11"/>
@@ -4952,7 +4945,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="11"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="11"/>
@@ -4964,7 +4957,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="11"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="11"/>
@@ -4976,7 +4969,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="11"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="11"/>
@@ -4988,7 +4981,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="11"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
       <c r="C261" s="10"/>
       <c r="D261" s="11"/>
@@ -5000,7 +4993,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="11"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
       <c r="C262" s="10"/>
       <c r="D262" s="11"/>
@@ -5012,7 +5005,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="11"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="9"/>
       <c r="C263" s="10"/>
       <c r="D263" s="11"/>
@@ -5024,7 +5017,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="11"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
       <c r="C264" s="10"/>
       <c r="D264" s="11"/>
@@ -5036,7 +5029,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="11"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
       <c r="C265" s="10"/>
       <c r="D265" s="11"/>
@@ -5048,7 +5041,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="11"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="11"/>
@@ -5060,7 +5053,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="11"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
       <c r="C267" s="10"/>
       <c r="D267" s="11"/>
@@ -5072,7 +5065,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="11"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="11"/>
@@ -5084,7 +5077,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="11"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
@@ -5096,7 +5089,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="11"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="11"/>
@@ -5108,7 +5101,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="11"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="C271" s="10"/>
       <c r="D271" s="11"/>
@@ -5120,7 +5113,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="11"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="11"/>
@@ -5132,7 +5125,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="11"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
@@ -5144,7 +5137,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="11"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="C274" s="10"/>
       <c r="D274" s="11"/>
@@ -5156,7 +5149,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="11"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="11"/>
@@ -5168,7 +5161,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="11"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="11"/>
@@ -5180,7 +5173,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="11"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="11"/>
@@ -5192,7 +5185,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="11"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="C278" s="10"/>
       <c r="D278" s="11"/>
@@ -5204,7 +5197,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="11"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="11"/>
@@ -5216,7 +5209,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="11"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="11"/>
@@ -5228,7 +5221,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="11"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="11"/>
@@ -5240,7 +5233,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="11"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="11"/>
@@ -5252,7 +5245,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="11"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
       <c r="C283" s="10"/>
       <c r="D283" s="11"/>
@@ -5264,7 +5257,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="11"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="C284" s="10"/>
       <c r="D284" s="11"/>
@@ -5276,7 +5269,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="11"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="C285" s="10"/>
       <c r="D285" s="11"/>
@@ -5288,7 +5281,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="11"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="C286" s="10"/>
       <c r="D286" s="11"/>
@@ -5300,7 +5293,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="11"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="11"/>
@@ -5312,7 +5305,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="11"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="11"/>
@@ -5324,7 +5317,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="11"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
       <c r="C289" s="10"/>
       <c r="D289" s="11"/>
@@ -5336,7 +5329,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="11"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="11"/>
@@ -5348,7 +5341,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="11"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
@@ -5360,7 +5353,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="11"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="11"/>
@@ -5372,7 +5365,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="11"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="9"/>
       <c r="C293" s="10"/>
       <c r="D293" s="11"/>
@@ -5384,7 +5377,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="11"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="11"/>
@@ -5396,7 +5389,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="11"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
@@ -5408,7 +5401,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="11"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
       <c r="C296" s="10"/>
       <c r="D296" s="11"/>
@@ -5420,7 +5413,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="11"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="11"/>
@@ -5432,7 +5425,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="11"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="11"/>
@@ -5444,7 +5437,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="11"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="11"/>
@@ -5456,7 +5449,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="11"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
       <c r="C300" s="10"/>
       <c r="D300" s="11"/>
@@ -5468,7 +5461,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="11"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="11"/>
@@ -5480,7 +5473,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="11"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="11"/>
@@ -5492,7 +5485,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="11"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="11"/>
@@ -5504,7 +5497,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="11"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="11"/>
@@ -5516,7 +5509,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="11"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
       <c r="C305" s="10"/>
       <c r="D305" s="11"/>
@@ -5528,7 +5521,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="11"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
       <c r="C306" s="10"/>
       <c r="D306" s="11"/>
@@ -5540,7 +5533,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="11"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="9"/>
       <c r="C307" s="10"/>
       <c r="D307" s="11"/>
@@ -5552,7 +5545,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="11"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="9"/>
       <c r="C308" s="10"/>
       <c r="D308" s="11"/>
@@ -5564,7 +5557,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="11"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
       <c r="C309" s="10"/>
       <c r="D309" s="11"/>
@@ -5576,7 +5569,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="11"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="11"/>
@@ -5588,7 +5581,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="11"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
       <c r="C311" s="10"/>
       <c r="D311" s="11"/>
@@ -5600,7 +5593,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="11"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="11"/>
@@ -5612,7 +5605,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="11"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
@@ -5624,7 +5617,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="11"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="11"/>
@@ -5636,7 +5629,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="11"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
       <c r="C315" s="10"/>
       <c r="D315" s="11"/>
@@ -5648,7 +5641,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="11"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="11"/>
@@ -5660,7 +5653,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="11"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
@@ -5672,7 +5665,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="11"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="9"/>
       <c r="C318" s="10"/>
       <c r="D318" s="11"/>
@@ -5684,7 +5677,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="11"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
@@ -5696,7 +5689,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="11"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="11"/>
@@ -5708,7 +5701,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="11"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="11"/>
@@ -5720,7 +5713,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="11"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
       <c r="C322" s="10"/>
       <c r="D322" s="11"/>
@@ -5732,7 +5725,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="11"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="11"/>
@@ -5744,7 +5737,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="11"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="11"/>
@@ -5756,7 +5749,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="11"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="11"/>
@@ -5768,7 +5761,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="11"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="11"/>
@@ -5780,7 +5773,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="11"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
       <c r="C327" s="10"/>
       <c r="D327" s="11"/>
@@ -5792,7 +5785,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="11"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
       <c r="C328" s="10"/>
       <c r="D328" s="11"/>
@@ -5804,7 +5797,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="11"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
       <c r="C329" s="10"/>
       <c r="D329" s="11"/>
@@ -5816,7 +5809,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="11"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
       <c r="C330" s="10"/>
       <c r="D330" s="11"/>
@@ -5828,7 +5821,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="11"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="11"/>
@@ -5840,7 +5833,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="11"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11"/>
@@ -5852,7 +5845,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="11"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
       <c r="C333" s="10"/>
       <c r="D333" s="11"/>
@@ -5864,7 +5857,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="11"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="11"/>
@@ -5876,7 +5869,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="11"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
@@ -5888,7 +5881,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="11"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="11"/>
@@ -5900,7 +5893,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="11"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="9"/>
       <c r="C337" s="10"/>
       <c r="D337" s="11"/>
@@ -5912,7 +5905,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="11"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="11"/>
@@ -5924,7 +5917,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="11"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
@@ -5936,7 +5929,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="11"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="9"/>
       <c r="C340" s="10"/>
       <c r="D340" s="11"/>
@@ -5948,7 +5941,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="11"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="11"/>
@@ -5960,7 +5953,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="11"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="11"/>
@@ -5972,7 +5965,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="11"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="11"/>
@@ -5984,7 +5977,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="11"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="9"/>
       <c r="C344" s="10"/>
       <c r="D344" s="11"/>
@@ -5996,7 +5989,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="11"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="11"/>
@@ -6008,7 +6001,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="11"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="11"/>
@@ -6020,7 +6013,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="11"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="11"/>
@@ -6032,7 +6025,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="11"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="11"/>
@@ -6044,7 +6037,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="11"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="9"/>
       <c r="C349" s="10"/>
       <c r="D349" s="11"/>
@@ -6056,7 +6049,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="11"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="9"/>
       <c r="C350" s="10"/>
       <c r="D350" s="11"/>
@@ -6068,7 +6061,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="11"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="9"/>
       <c r="C351" s="10"/>
       <c r="D351" s="11"/>
@@ -6080,7 +6073,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="11"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="9"/>
       <c r="C352" s="10"/>
       <c r="D352" s="11"/>
@@ -6092,7 +6085,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="11"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="9"/>
       <c r="C353" s="10"/>
       <c r="D353" s="11"/>
@@ -6104,7 +6097,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="11"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="11"/>
@@ -6116,7 +6109,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="11"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="9"/>
       <c r="C355" s="10"/>
       <c r="D355" s="11"/>
@@ -6128,7 +6121,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="11"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="11"/>
@@ -6140,7 +6133,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="11"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
@@ -6152,7 +6145,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="11"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="11"/>
@@ -6164,7 +6157,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="11"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="9"/>
       <c r="C359" s="10"/>
       <c r="D359" s="11"/>
@@ -6176,7 +6169,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="11"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="11"/>
@@ -6188,7 +6181,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="11"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
@@ -6200,7 +6193,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="11"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="9"/>
       <c r="C362" s="10"/>
       <c r="D362" s="11"/>
@@ -6212,7 +6205,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="11"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11"/>
@@ -6224,7 +6217,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="11"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="11"/>
@@ -6236,7 +6229,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="11"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="11"/>
@@ -6248,7 +6241,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="11"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="9"/>
       <c r="C366" s="10"/>
       <c r="D366" s="11"/>
@@ -6260,7 +6253,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="11"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="11"/>
@@ -6272,7 +6265,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="11"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="11"/>
@@ -6284,7 +6277,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="11"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="11"/>
@@ -6296,7 +6289,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="11"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="11"/>
@@ -6308,7 +6301,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="11"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="9"/>
       <c r="C371" s="10"/>
       <c r="D371" s="11"/>
@@ -6320,7 +6313,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="11"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="9"/>
       <c r="C372" s="10"/>
       <c r="D372" s="11"/>
@@ -6332,7 +6325,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="11"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="9"/>
       <c r="C373" s="10"/>
       <c r="D373" s="11"/>
@@ -6344,7 +6337,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="11"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="9"/>
       <c r="C374" s="10"/>
       <c r="D374" s="11"/>
@@ -6356,7 +6349,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="11"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="9"/>
       <c r="C375" s="10"/>
       <c r="D375" s="11"/>
@@ -6368,7 +6361,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="11"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="9"/>
       <c r="C376" s="10"/>
       <c r="D376" s="11"/>
@@ -6380,7 +6373,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="11"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="9"/>
       <c r="C377" s="10"/>
       <c r="D377" s="11"/>
@@ -6392,7 +6385,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="11"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="9"/>
       <c r="C378" s="10"/>
       <c r="D378" s="11"/>
@@ -6404,7 +6397,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="11"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="9"/>
       <c r="C379" s="10"/>
       <c r="D379" s="11"/>
@@ -6416,7 +6409,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="11"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="9"/>
       <c r="C380" s="10"/>
       <c r="D380" s="11"/>
@@ -6428,7 +6421,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="11"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="9"/>
       <c r="C381" s="10"/>
       <c r="D381" s="11"/>
@@ -6440,7 +6433,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="11"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="9"/>
       <c r="C382" s="10"/>
       <c r="D382" s="11"/>
@@ -6452,7 +6445,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="11"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="9"/>
       <c r="C383" s="10"/>
       <c r="D383" s="11"/>
@@ -6464,7 +6457,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="11"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="9"/>
       <c r="C384" s="10"/>
       <c r="D384" s="11"/>
@@ -6476,7 +6469,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="11"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="9"/>
       <c r="C385" s="10"/>
       <c r="D385" s="11"/>
@@ -6488,7 +6481,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="11"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="9"/>
       <c r="C386" s="10"/>
       <c r="D386" s="11"/>
@@ -6500,7 +6493,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="11"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="9"/>
       <c r="C387" s="10"/>
       <c r="D387" s="11"/>
@@ -6512,7 +6505,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="11"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="9"/>
       <c r="C388" s="10"/>
       <c r="D388" s="11"/>
@@ -6524,7 +6517,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="11"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="9"/>
       <c r="C389" s="10"/>
       <c r="D389" s="11"/>
@@ -6536,7 +6529,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="11"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="9"/>
       <c r="C390" s="10"/>
       <c r="D390" s="11"/>
@@ -6548,7 +6541,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="11"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="9"/>
       <c r="C391" s="10"/>
       <c r="D391" s="11"/>
@@ -6560,7 +6553,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="11"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="9"/>
       <c r="C392" s="10"/>
       <c r="D392" s="11"/>
@@ -6572,7 +6565,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="11"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="9"/>
       <c r="C393" s="10"/>
       <c r="D393" s="11"/>
@@ -6584,7 +6577,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="11"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="9"/>
       <c r="C394" s="10"/>
       <c r="D394" s="11"/>
@@ -6596,7 +6589,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="11"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="9"/>
       <c r="C395" s="10"/>
       <c r="D395" s="11"/>
@@ -6608,7 +6601,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="11"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="9"/>
       <c r="C396" s="10"/>
       <c r="D396" s="11"/>
@@ -6620,7 +6613,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="11"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="9"/>
       <c r="C397" s="10"/>
       <c r="D397" s="11"/>
@@ -6632,7 +6625,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="11"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="9"/>
       <c r="C398" s="10"/>
       <c r="D398" s="11"/>
@@ -6644,7 +6637,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="11"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="9"/>
       <c r="C399" s="10"/>
       <c r="D399" s="11"/>
@@ -6656,7 +6649,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="11"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="9"/>
       <c r="C400" s="10"/>
       <c r="D400" s="11"/>
@@ -6668,7 +6661,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="11"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="9"/>
       <c r="C401" s="10"/>
       <c r="D401" s="11"/>
@@ -6680,7 +6673,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="11"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="9"/>
       <c r="C402" s="10"/>
       <c r="D402" s="11"/>
@@ -6692,7 +6685,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="11"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="9"/>
       <c r="C403" s="10"/>
       <c r="D403" s="11"/>
@@ -6704,7 +6697,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="11"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="9"/>
       <c r="C404" s="10"/>
       <c r="D404" s="11"/>
@@ -6716,7 +6709,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="11"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="9"/>
       <c r="C405" s="10"/>
       <c r="D405" s="11"/>
@@ -6728,7 +6721,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="11"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="9"/>
       <c r="C406" s="10"/>
       <c r="D406" s="11"/>
@@ -6740,7 +6733,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="11"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="9"/>
       <c r="C407" s="10"/>
       <c r="D407" s="11"/>
@@ -6752,7 +6745,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="11"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="9"/>
       <c r="C408" s="10"/>
       <c r="D408" s="11"/>
@@ -6764,7 +6757,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="11"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="9"/>
       <c r="C409" s="10"/>
       <c r="D409" s="11"/>
@@ -6776,7 +6769,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="11"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="9"/>
       <c r="C410" s="10"/>
       <c r="D410" s="11"/>
@@ -6788,7 +6781,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="11"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="9"/>
       <c r="C411" s="10"/>
       <c r="D411" s="11"/>
@@ -6800,7 +6793,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="11"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="9"/>
       <c r="C412" s="10"/>
       <c r="D412" s="11"/>
@@ -6812,7 +6805,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="11"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="9"/>
       <c r="C413" s="10"/>
       <c r="D413" s="11"/>
@@ -6824,7 +6817,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="11"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="9"/>
       <c r="C414" s="10"/>
       <c r="D414" s="11"/>
@@ -6836,7 +6829,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="11"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="9"/>
       <c r="C415" s="10"/>
       <c r="D415" s="11"/>
@@ -6848,7 +6841,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="11"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="9"/>
       <c r="C416" s="10"/>
       <c r="D416" s="11"/>
@@ -6860,7 +6853,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="11"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="9"/>
       <c r="C417" s="10"/>
       <c r="D417" s="11"/>
@@ -6872,7 +6865,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="11"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="9"/>
       <c r="C418" s="10"/>
       <c r="D418" s="11"/>
@@ -6884,7 +6877,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="11"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="9"/>
       <c r="C419" s="10"/>
       <c r="D419" s="11"/>
@@ -6896,7 +6889,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="11"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="9"/>
       <c r="C420" s="10"/>
       <c r="D420" s="11"/>
@@ -6908,7 +6901,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="11"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="9"/>
       <c r="C421" s="10"/>
       <c r="D421" s="11"/>
@@ -6920,7 +6913,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="11"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="9"/>
       <c r="C422" s="10"/>
       <c r="D422" s="11"/>
@@ -6932,7 +6925,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="11"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="9"/>
       <c r="C423" s="10"/>
       <c r="D423" s="11"/>
@@ -6944,7 +6937,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="11"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="9"/>
       <c r="C424" s="10"/>
       <c r="D424" s="11"/>
@@ -6956,7 +6949,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="11"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="9"/>
       <c r="C425" s="10"/>
       <c r="D425" s="11"/>
@@ -6968,7 +6961,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="11"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="9"/>
       <c r="C426" s="10"/>
       <c r="D426" s="11"/>
@@ -6980,7 +6973,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="11"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="9"/>
       <c r="C427" s="10"/>
       <c r="D427" s="11"/>
@@ -6992,7 +6985,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="11"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="9"/>
       <c r="C428" s="10"/>
       <c r="D428" s="11"/>
@@ -7004,7 +6997,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="11"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="9"/>
       <c r="C429" s="10"/>
       <c r="D429" s="11"/>
@@ -7016,7 +7009,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="11"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="9"/>
       <c r="C430" s="10"/>
       <c r="D430" s="11"/>
@@ -7028,7 +7021,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="11"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="9"/>
       <c r="C431" s="10"/>
       <c r="D431" s="11"/>
@@ -7040,7 +7033,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="11"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="9"/>
       <c r="C432" s="10"/>
       <c r="D432" s="11"/>
@@ -7052,7 +7045,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="11"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="9"/>
       <c r="C433" s="10"/>
       <c r="D433" s="11"/>
@@ -7064,7 +7057,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="11"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="9"/>
       <c r="C434" s="10"/>
       <c r="D434" s="11"/>
@@ -7076,7 +7069,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="11"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="9"/>
       <c r="C435" s="10"/>
       <c r="D435" s="11"/>
@@ -7088,7 +7081,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="11"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="9"/>
       <c r="C436" s="10"/>
       <c r="D436" s="11"/>
@@ -7100,7 +7093,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="11"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="9"/>
       <c r="C437" s="10"/>
       <c r="D437" s="11"/>
@@ -7112,7 +7105,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="11"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="9"/>
       <c r="C438" s="10"/>
       <c r="D438" s="11"/>
@@ -7124,7 +7117,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="11"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="9"/>
       <c r="C439" s="10"/>
       <c r="D439" s="11"/>
@@ -7136,7 +7129,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="11"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="9"/>
       <c r="C440" s="10"/>
       <c r="D440" s="11"/>
@@ -7148,7 +7141,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="11"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="9"/>
       <c r="C441" s="10"/>
       <c r="D441" s="11"/>
@@ -7160,7 +7153,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="11"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="9"/>
       <c r="C442" s="10"/>
       <c r="D442" s="11"/>
@@ -7172,7 +7165,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="11"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="9"/>
       <c r="C443" s="10"/>
       <c r="D443" s="11"/>
@@ -7184,7 +7177,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="11"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="9"/>
       <c r="C444" s="10"/>
       <c r="D444" s="11"/>
@@ -7196,7 +7189,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="11"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="9"/>
       <c r="C445" s="10"/>
       <c r="D445" s="11"/>
@@ -7208,7 +7201,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="11"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="9"/>
       <c r="C446" s="10"/>
       <c r="D446" s="11"/>
@@ -7220,7 +7213,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="11"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="9"/>
       <c r="C447" s="10"/>
       <c r="D447" s="11"/>
@@ -7232,7 +7225,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="11"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="9"/>
       <c r="C448" s="10"/>
       <c r="D448" s="11"/>
@@ -7244,7 +7237,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="11"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="9"/>
       <c r="C449" s="10"/>
       <c r="D449" s="11"/>
@@ -7256,7 +7249,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="11"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="9"/>
       <c r="C450" s="10"/>
       <c r="D450" s="11"/>
@@ -7268,7 +7261,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="11"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="9"/>
       <c r="C451" s="10"/>
       <c r="D451" s="11"/>
@@ -7280,7 +7273,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="11"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="9"/>
       <c r="C452" s="10"/>
       <c r="D452" s="11"/>
@@ -7292,7 +7285,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="11"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="9"/>
       <c r="C453" s="10"/>
       <c r="D453" s="11"/>
@@ -7304,7 +7297,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="11"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="9"/>
       <c r="C454" s="10"/>
       <c r="D454" s="11"/>
@@ -7316,7 +7309,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="11"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="9"/>
       <c r="C455" s="10"/>
       <c r="D455" s="11"/>
@@ -7328,7 +7321,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="11"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="9"/>
       <c r="C456" s="10"/>
       <c r="D456" s="11"/>
@@ -7340,7 +7333,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="11"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="9"/>
       <c r="C457" s="10"/>
       <c r="D457" s="11"/>
@@ -7352,7 +7345,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="11"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="9"/>
       <c r="C458" s="10"/>
       <c r="D458" s="11"/>
@@ -7364,7 +7357,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="11"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="9"/>
       <c r="C459" s="10"/>
       <c r="D459" s="11"/>
@@ -7376,7 +7369,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="11"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="9"/>
       <c r="C460" s="10"/>
       <c r="D460" s="11"/>
@@ -7388,7 +7381,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="11"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="9"/>
       <c r="C461" s="10"/>
       <c r="D461" s="11"/>
@@ -7400,7 +7393,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="11"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="9"/>
       <c r="C462" s="10"/>
       <c r="D462" s="11"/>
@@ -7412,7 +7405,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="11"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="9"/>
       <c r="C463" s="10"/>
       <c r="D463" s="11"/>
@@ -7424,7 +7417,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="11"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="9"/>
       <c r="C464" s="10"/>
       <c r="D464" s="11"/>
@@ -7436,7 +7429,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="11"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="9"/>
       <c r="C465" s="10"/>
       <c r="D465" s="11"/>
@@ -7448,7 +7441,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="11"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="9"/>
       <c r="C466" s="10"/>
       <c r="D466" s="11"/>
@@ -7460,7 +7453,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="11"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="9"/>
       <c r="C467" s="10"/>
       <c r="D467" s="11"/>
@@ -7472,7 +7465,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="11"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="9"/>
       <c r="C468" s="10"/>
       <c r="D468" s="11"/>
@@ -7484,7 +7477,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="11"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="9"/>
       <c r="C469" s="10"/>
       <c r="D469" s="11"/>
@@ -7496,7 +7489,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="11"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="9"/>
       <c r="C470" s="10"/>
       <c r="D470" s="11"/>
@@ -7508,7 +7501,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="11"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="9"/>
       <c r="C471" s="10"/>
       <c r="D471" s="11"/>
@@ -7520,7 +7513,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="11"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="9"/>
       <c r="C472" s="10"/>
       <c r="D472" s="11"/>
@@ -7532,7 +7525,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="11"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="9"/>
       <c r="C473" s="10"/>
       <c r="D473" s="11"/>
@@ -7544,7 +7537,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="11"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="9"/>
       <c r="C474" s="10"/>
       <c r="D474" s="11"/>
@@ -7556,7 +7549,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="11"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="9"/>
       <c r="C475" s="10"/>
       <c r="D475" s="11"/>
@@ -7568,7 +7561,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="11"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="9"/>
       <c r="C476" s="10"/>
       <c r="D476" s="11"/>
@@ -7580,7 +7573,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="11"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="9"/>
       <c r="C477" s="10"/>
       <c r="D477" s="11"/>
@@ -7592,7 +7585,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="11"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="9"/>
       <c r="C478" s="10"/>
       <c r="D478" s="11"/>
@@ -7604,7 +7597,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="11"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="9"/>
       <c r="C479" s="10"/>
       <c r="D479" s="11"/>
@@ -7616,7 +7609,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="11"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="9"/>
       <c r="C480" s="10"/>
       <c r="D480" s="11"/>
@@ -7628,7 +7621,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="11"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="9"/>
       <c r="C481" s="10"/>
       <c r="D481" s="11"/>
@@ -7640,7 +7633,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="11"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="9"/>
       <c r="C482" s="10"/>
       <c r="D482" s="11"/>
@@ -7652,7 +7645,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="11"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="9"/>
       <c r="C483" s="10"/>
       <c r="D483" s="11"/>
@@ -7664,7 +7657,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="11"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="9"/>
       <c r="C484" s="10"/>
       <c r="D484" s="11"/>
@@ -7676,7 +7669,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="11"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="9"/>
       <c r="C485" s="10"/>
       <c r="D485" s="11"/>
@@ -7688,7 +7681,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="11"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="9"/>
       <c r="C486" s="10"/>
       <c r="D486" s="11"/>
@@ -7700,7 +7693,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="11"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="9"/>
       <c r="C487" s="10"/>
       <c r="D487" s="11"/>
@@ -7712,7 +7705,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="11"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="9"/>
       <c r="C488" s="10"/>
       <c r="D488" s="11"/>
@@ -7724,7 +7717,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="11"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="9"/>
       <c r="C489" s="10"/>
       <c r="D489" s="11"/>
@@ -7736,7 +7729,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="11"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="9"/>
       <c r="C490" s="10"/>
       <c r="D490" s="11"/>
@@ -7748,7 +7741,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="11"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="9"/>
       <c r="C491" s="10"/>
       <c r="D491" s="11"/>
@@ -7760,7 +7753,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="11"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="9"/>
       <c r="C492" s="10"/>
       <c r="D492" s="11"/>
@@ -7772,7 +7765,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="11"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="9"/>
       <c r="C493" s="10"/>
       <c r="D493" s="11"/>
@@ -7784,7 +7777,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="11"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="9"/>
       <c r="C494" s="10"/>
       <c r="D494" s="11"/>
@@ -7796,7 +7789,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="11"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="9"/>
       <c r="C495" s="10"/>
       <c r="D495" s="11"/>
@@ -7808,7 +7801,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="11"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="9"/>
       <c r="C496" s="10"/>
       <c r="D496" s="11"/>
@@ -7820,7 +7813,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="11"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="9"/>
       <c r="C497" s="10"/>
       <c r="D497" s="11"/>
@@ -7832,7 +7825,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="11"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="9"/>
       <c r="C498" s="10"/>
       <c r="D498" s="11"/>
@@ -7844,7 +7837,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="11"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="9"/>
       <c r="C499" s="10"/>
       <c r="D499" s="11"/>
@@ -7856,7 +7849,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="11"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="9"/>
       <c r="C500" s="10"/>
       <c r="D500" s="11"/>
@@ -7868,7 +7861,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="11"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="9"/>
       <c r="C501" s="10"/>
       <c r="D501" s="11"/>
@@ -7880,7 +7873,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="11"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="9"/>
       <c r="C502" s="10"/>
       <c r="D502" s="11"/>
@@ -7892,7 +7885,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="11"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="9"/>
       <c r="C503" s="10"/>
       <c r="D503" s="11"/>
@@ -7904,7 +7897,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="11"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="9"/>
       <c r="C504" s="10"/>
       <c r="D504" s="11"/>
@@ -7916,7 +7909,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="11"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="9"/>
       <c r="C505" s="10"/>
       <c r="D505" s="11"/>
@@ -7928,7 +7921,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="11"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="9"/>
       <c r="C506" s="10"/>
       <c r="D506" s="11"/>
@@ -7940,7 +7933,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="11"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="9"/>
       <c r="C507" s="10"/>
       <c r="D507" s="11"/>
@@ -7952,7 +7945,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="11"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="9"/>
       <c r="C508" s="10"/>
       <c r="D508" s="11"/>
@@ -7964,7 +7957,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="11"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="9"/>
       <c r="C509" s="10"/>
       <c r="D509" s="11"/>
@@ -7976,7 +7969,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="11"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="9"/>
       <c r="C510" s="10"/>
       <c r="D510" s="11"/>
@@ -7988,7 +7981,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="11"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="9"/>
       <c r="C511" s="10"/>
       <c r="D511" s="11"/>
@@ -8000,7 +7993,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="11"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="9"/>
       <c r="C512" s="10"/>
       <c r="D512" s="11"/>
@@ -8012,7 +8005,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="11"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="9"/>
       <c r="C513" s="10"/>
       <c r="D513" s="11"/>
@@ -8024,7 +8017,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="11"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="9"/>
       <c r="C514" s="10"/>
       <c r="D514" s="11"/>
@@ -8036,7 +8029,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="11"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="9"/>
       <c r="C515" s="10"/>
       <c r="D515" s="11"/>
@@ -8048,7 +8041,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="11"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="9"/>
       <c r="C516" s="10"/>
       <c r="D516" s="11"/>
@@ -8060,7 +8053,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="11"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="9"/>
       <c r="C517" s="10"/>
       <c r="D517" s="11"/>
@@ -8072,7 +8065,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="11"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="9"/>
       <c r="C518" s="10"/>
       <c r="D518" s="11"/>
@@ -8084,7 +8077,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="11"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="9"/>
       <c r="C519" s="10"/>
       <c r="D519" s="11"/>
@@ -8096,7 +8089,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="11"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="9"/>
       <c r="C520" s="10"/>
       <c r="D520" s="11"/>
@@ -8108,7 +8101,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="11"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="9"/>
       <c r="C521" s="10"/>
       <c r="D521" s="11"/>
@@ -8120,7 +8113,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="11"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="9"/>
       <c r="C522" s="10"/>
       <c r="D522" s="11"/>
@@ -8132,7 +8125,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="11"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="9"/>
       <c r="C523" s="10"/>
       <c r="D523" s="11"/>
@@ -8144,7 +8137,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="11"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="9"/>
       <c r="C524" s="10"/>
       <c r="D524" s="11"/>
@@ -8156,7 +8149,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="11"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="9"/>
       <c r="C525" s="10"/>
       <c r="D525" s="11"/>
@@ -8168,7 +8161,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="11"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="9"/>
       <c r="C526" s="10"/>
       <c r="D526" s="11"/>
@@ -8180,7 +8173,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="11"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="9"/>
       <c r="C527" s="10"/>
       <c r="D527" s="11"/>
@@ -8192,7 +8185,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="11"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="9"/>
       <c r="C528" s="10"/>
       <c r="D528" s="11"/>
@@ -8204,7 +8197,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="11"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="9"/>
       <c r="C529" s="10"/>
       <c r="D529" s="11"/>
@@ -8216,7 +8209,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="11"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="9"/>
       <c r="C530" s="10"/>
       <c r="D530" s="11"/>
@@ -8228,7 +8221,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="11"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="9"/>
       <c r="C531" s="10"/>
       <c r="D531" s="11"/>
@@ -8240,7 +8233,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="11"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="9"/>
       <c r="C532" s="10"/>
       <c r="D532" s="11"/>
@@ -8252,7 +8245,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="11"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="9"/>
       <c r="C533" s="10"/>
       <c r="D533" s="11"/>
@@ -8264,7 +8257,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="11"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="9"/>
       <c r="C534" s="10"/>
       <c r="D534" s="11"/>
@@ -8276,7 +8269,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="11"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="9"/>
       <c r="C535" s="10"/>
       <c r="D535" s="11"/>
@@ -8288,7 +8281,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="11"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="9"/>
       <c r="C536" s="10"/>
       <c r="D536" s="11"/>
@@ -8300,7 +8293,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="11"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="9"/>
       <c r="C537" s="10"/>
       <c r="D537" s="11"/>
@@ -8312,7 +8305,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="11"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="9"/>
       <c r="C538" s="10"/>
       <c r="D538" s="11"/>
@@ -8324,7 +8317,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="11"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="9"/>
       <c r="C539" s="10"/>
       <c r="D539" s="11"/>
@@ -8336,7 +8329,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="11"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="9"/>
       <c r="C540" s="10"/>
       <c r="D540" s="11"/>
@@ -8348,7 +8341,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="11"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="9"/>
       <c r="C541" s="10"/>
       <c r="D541" s="11"/>
@@ -8360,7 +8353,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="11"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="9"/>
       <c r="C542" s="10"/>
       <c r="D542" s="11"/>
@@ -8372,7 +8365,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="11"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="9"/>
       <c r="C543" s="10"/>
       <c r="D543" s="11"/>
@@ -8384,7 +8377,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="11"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="9"/>
       <c r="C544" s="10"/>
       <c r="D544" s="11"/>
@@ -8396,7 +8389,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="11"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="9"/>
       <c r="C545" s="10"/>
       <c r="D545" s="11"/>
@@ -8408,7 +8401,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="11"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="9"/>
       <c r="C546" s="10"/>
       <c r="D546" s="11"/>
@@ -8420,7 +8413,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="11"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="9"/>
       <c r="C547" s="10"/>
       <c r="D547" s="11"/>
@@ -8432,7 +8425,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="11"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="9"/>
       <c r="C548" s="10"/>
       <c r="D548" s="11"/>
@@ -8444,7 +8437,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="11"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="9"/>
       <c r="C549" s="10"/>
       <c r="D549" s="11"/>
@@ -8456,7 +8449,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="11"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="9"/>
       <c r="C550" s="10"/>
       <c r="D550" s="11"/>
@@ -8468,7 +8461,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="11"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="9"/>
       <c r="C551" s="10"/>
       <c r="D551" s="11"/>
@@ -8480,7 +8473,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="11"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="9"/>
       <c r="C552" s="10"/>
       <c r="D552" s="11"/>
@@ -8492,7 +8485,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="11"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="9"/>
       <c r="C553" s="10"/>
       <c r="D553" s="11"/>
@@ -8504,7 +8497,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="11"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="9"/>
       <c r="C554" s="10"/>
       <c r="D554" s="11"/>
@@ -8516,7 +8509,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="11"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="9"/>
       <c r="C555" s="10"/>
       <c r="D555" s="11"/>
@@ -8528,7 +8521,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="11"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="9"/>
       <c r="C556" s="10"/>
       <c r="D556" s="11"/>
@@ -8540,7 +8533,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="11"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="9"/>
       <c r="C557" s="10"/>
       <c r="D557" s="11"/>
@@ -8552,7 +8545,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="11"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="9"/>
       <c r="C558" s="10"/>
       <c r="D558" s="11"/>
@@ -8564,7 +8557,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="11"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="9"/>
       <c r="C559" s="10"/>
       <c r="D559" s="11"/>
@@ -8576,7 +8569,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="11"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="9"/>
       <c r="C560" s="10"/>
       <c r="D560" s="11"/>
@@ -8588,7 +8581,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="11"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="9"/>
       <c r="C561" s="10"/>
       <c r="D561" s="11"/>
@@ -8600,7 +8593,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="11"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="9"/>
       <c r="C562" s="10"/>
       <c r="D562" s="11"/>
@@ -8612,7 +8605,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="11"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="9"/>
       <c r="C563" s="10"/>
       <c r="D563" s="11"/>
@@ -8624,7 +8617,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="11"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="9"/>
       <c r="C564" s="10"/>
       <c r="D564" s="11"/>
@@ -8636,7 +8629,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="11"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="9"/>
       <c r="C565" s="10"/>
       <c r="D565" s="11"/>
@@ -8648,7 +8641,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="11"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="9"/>
       <c r="C566" s="10"/>
       <c r="D566" s="11"/>
@@ -8660,7 +8653,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="11"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="9"/>
       <c r="C567" s="10"/>
       <c r="D567" s="11"/>
@@ -8672,7 +8665,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="11"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="9"/>
       <c r="C568" s="10"/>
       <c r="D568" s="11"/>
@@ -8684,7 +8677,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="11"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="9"/>
       <c r="C569" s="10"/>
       <c r="D569" s="11"/>
@@ -8696,7 +8689,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="11"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="9"/>
       <c r="C570" s="10"/>
       <c r="D570" s="11"/>
@@ -8708,7 +8701,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="11"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="9"/>
       <c r="C571" s="10"/>
       <c r="D571" s="11"/>
@@ -8720,7 +8713,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="11"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="9"/>
       <c r="C572" s="10"/>
       <c r="D572" s="11"/>
@@ -8732,7 +8725,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="11"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="9"/>
       <c r="C573" s="10"/>
       <c r="D573" s="11"/>
@@ -8744,7 +8737,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="11"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="9"/>
       <c r="C574" s="10"/>
       <c r="D574" s="11"/>
@@ -8756,7 +8749,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="11"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="9"/>
       <c r="C575" s="10"/>
       <c r="D575" s="11"/>
@@ -8768,7 +8761,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="11"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="9"/>
       <c r="C576" s="10"/>
       <c r="D576" s="11"/>
@@ -8780,7 +8773,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="11"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="9"/>
       <c r="C577" s="10"/>
       <c r="D577" s="11"/>
@@ -8792,7 +8785,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="11"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="9"/>
       <c r="C578" s="10"/>
       <c r="D578" s="11"/>
@@ -8804,7 +8797,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="11"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="9"/>
       <c r="C579" s="10"/>
       <c r="D579" s="11"/>
@@ -8816,7 +8809,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="11"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="9"/>
       <c r="C580" s="10"/>
       <c r="D580" s="11"/>
@@ -8828,7 +8821,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="11"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="9"/>
       <c r="C581" s="10"/>
       <c r="D581" s="11"/>
@@ -8840,7 +8833,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="11"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="9"/>
       <c r="C582" s="10"/>
       <c r="D582" s="11"/>
@@ -8852,7 +8845,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="11"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="9"/>
       <c r="C583" s="10"/>
       <c r="D583" s="11"/>
@@ -8864,7 +8857,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="11"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="9"/>
       <c r="C584" s="10"/>
       <c r="D584" s="11"/>
@@ -8876,7 +8869,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="11"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="9"/>
       <c r="C585" s="10"/>
       <c r="D585" s="11"/>
@@ -8888,7 +8881,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="11"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="9"/>
       <c r="C586" s="10"/>
       <c r="D586" s="11"/>
@@ -8900,7 +8893,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="11"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="9"/>
       <c r="C587" s="10"/>
       <c r="D587" s="11"/>
@@ -8912,7 +8905,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="11"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="9"/>
       <c r="C588" s="10"/>
       <c r="D588" s="11"/>
@@ -8924,7 +8917,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="11"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="9"/>
       <c r="C589" s="10"/>
       <c r="D589" s="11"/>
@@ -8936,7 +8929,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="11"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="9"/>
       <c r="C590" s="10"/>
       <c r="D590" s="11"/>
@@ -8948,7 +8941,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="11"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="9"/>
       <c r="C591" s="10"/>
       <c r="D591" s="11"/>
@@ -8960,7 +8953,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="11"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="9"/>
       <c r="C592" s="10"/>
       <c r="D592" s="11"/>
@@ -8972,7 +8965,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="11"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="9"/>
       <c r="C593" s="10"/>
       <c r="D593" s="11"/>
@@ -8984,7 +8977,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="11"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="9"/>
       <c r="C594" s="10"/>
       <c r="D594" s="11"/>
@@ -8996,7 +8989,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="11"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="9"/>
       <c r="C595" s="10"/>
       <c r="D595" s="11"/>
@@ -9008,7 +9001,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="11"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="9"/>
       <c r="C596" s="10"/>
       <c r="D596" s="11"/>
@@ -9020,7 +9013,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="11"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="9"/>
       <c r="C597" s="10"/>
       <c r="D597" s="11"/>
@@ -9032,7 +9025,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="11"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="9"/>
       <c r="C598" s="10"/>
       <c r="D598" s="11"/>
@@ -9044,7 +9037,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="11"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="9"/>
       <c r="C599" s="10"/>
       <c r="D599" s="11"/>
@@ -9056,7 +9049,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="11"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="9"/>
       <c r="C600" s="10"/>
       <c r="D600" s="11"/>
@@ -9068,7 +9061,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="11"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="9"/>
       <c r="C601" s="10"/>
       <c r="D601" s="11"/>
@@ -9080,7 +9073,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="11"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="9"/>
       <c r="C602" s="10"/>
       <c r="D602" s="11"/>
@@ -9092,7 +9085,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="11"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="9"/>
       <c r="C603" s="10"/>
       <c r="D603" s="11"/>
@@ -9104,7 +9097,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="11"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="9"/>
       <c r="C604" s="10"/>
       <c r="D604" s="11"/>
@@ -9116,7 +9109,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="11"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="9"/>
       <c r="C605" s="10"/>
       <c r="D605" s="11"/>
@@ -9128,7 +9121,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="11"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="9"/>
       <c r="C606" s="10"/>
       <c r="D606" s="11"/>
@@ -9140,7 +9133,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="11"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="9"/>
       <c r="C607" s="10"/>
       <c r="D607" s="11"/>
@@ -9152,7 +9145,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="11"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="9"/>
       <c r="C608" s="10"/>
       <c r="D608" s="11"/>
@@ -9164,7 +9157,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="11"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="9"/>
       <c r="C609" s="10"/>
       <c r="D609" s="11"/>
@@ -9176,7 +9169,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="11"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="9"/>
       <c r="C610" s="10"/>
       <c r="D610" s="11"/>
@@ -9188,7 +9181,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="11"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="9"/>
       <c r="C611" s="10"/>
       <c r="D611" s="11"/>
@@ -9200,7 +9193,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="11"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="9"/>
       <c r="C612" s="10"/>
       <c r="D612" s="11"/>
@@ -9212,7 +9205,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="11"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="9"/>
       <c r="C613" s="10"/>
       <c r="D613" s="11"/>
@@ -9224,7 +9217,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="11"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="9"/>
       <c r="C614" s="10"/>
       <c r="D614" s="11"/>
@@ -9236,7 +9229,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="11"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="9"/>
       <c r="C615" s="10"/>
       <c r="D615" s="11"/>
@@ -9248,7 +9241,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="11"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="9"/>
       <c r="C616" s="10"/>
       <c r="D616" s="11"/>
@@ -9260,7 +9253,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="11"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="9"/>
       <c r="C617" s="10"/>
       <c r="D617" s="11"/>
@@ -9272,7 +9265,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="11"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="9"/>
       <c r="C618" s="10"/>
       <c r="D618" s="11"/>
@@ -9284,7 +9277,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="11"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="9"/>
       <c r="C619" s="10"/>
       <c r="D619" s="11"/>
@@ -9296,7 +9289,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="11"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="9"/>
       <c r="C620" s="10"/>
       <c r="D620" s="11"/>
@@ -9308,7 +9301,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="11"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="9"/>
       <c r="C621" s="10"/>
       <c r="D621" s="11"/>
@@ -9320,7 +9313,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="11"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="9"/>
       <c r="C622" s="10"/>
       <c r="D622" s="11"/>
@@ -9332,7 +9325,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="11"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="9"/>
       <c r="C623" s="10"/>
       <c r="D623" s="11"/>
@@ -9344,7 +9337,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="11"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="9"/>
       <c r="C624" s="10"/>
       <c r="D624" s="11"/>
@@ -9356,7 +9349,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="11"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="9"/>
       <c r="C625" s="10"/>
       <c r="D625" s="11"/>
@@ -9368,7 +9361,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="11"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="9"/>
       <c r="C626" s="10"/>
       <c r="D626" s="11"/>
@@ -9380,7 +9373,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="11"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="9"/>
       <c r="C627" s="10"/>
       <c r="D627" s="11"/>
@@ -9392,7 +9385,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="11"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="9"/>
       <c r="C628" s="10"/>
       <c r="D628" s="11"/>
@@ -9404,7 +9397,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="11"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="9"/>
       <c r="C629" s="10"/>
       <c r="D629" s="11"/>
@@ -9416,7 +9409,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="11"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="9"/>
       <c r="C630" s="10"/>
       <c r="D630" s="11"/>
@@ -9428,7 +9421,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="11"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="9"/>
       <c r="C631" s="10"/>
       <c r="D631" s="11"/>
@@ -9440,7 +9433,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="11"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="9"/>
       <c r="C632" s="10"/>
       <c r="D632" s="11"/>
@@ -9452,7 +9445,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="11"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="9"/>
       <c r="C633" s="10"/>
       <c r="D633" s="11"/>
@@ -9464,7 +9457,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="11"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="9"/>
       <c r="C634" s="10"/>
       <c r="D634" s="11"/>
@@ -9476,7 +9469,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="11"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="9"/>
       <c r="C635" s="10"/>
       <c r="D635" s="11"/>
@@ -9488,7 +9481,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="11"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="9"/>
       <c r="C636" s="10"/>
       <c r="D636" s="11"/>
@@ -9500,7 +9493,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="11"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="9"/>
       <c r="C637" s="10"/>
       <c r="D637" s="11"/>
@@ -9512,7 +9505,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="11"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="9"/>
       <c r="C638" s="10"/>
       <c r="D638" s="11"/>
@@ -9524,7 +9517,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="11"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="9"/>
       <c r="C639" s="10"/>
       <c r="D639" s="11"/>
@@ -9536,7 +9529,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="11"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="9"/>
       <c r="C640" s="10"/>
       <c r="D640" s="11"/>
@@ -9548,7 +9541,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="11"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="9"/>
       <c r="C641" s="10"/>
       <c r="D641" s="11"/>
@@ -9560,7 +9553,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="11"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="9"/>
       <c r="C642" s="10"/>
       <c r="D642" s="11"/>
@@ -9572,7 +9565,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="11"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="9"/>
       <c r="C643" s="10"/>
       <c r="D643" s="11"/>
@@ -9584,7 +9577,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="11"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="9"/>
       <c r="C644" s="10"/>
       <c r="D644" s="11"/>
@@ -9596,7 +9589,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="11"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="9"/>
       <c r="C645" s="10"/>
       <c r="D645" s="11"/>
@@ -9608,7 +9601,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="11"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="9"/>
       <c r="C646" s="10"/>
       <c r="D646" s="11"/>
@@ -9620,7 +9613,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="11"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="9"/>
       <c r="C647" s="10"/>
       <c r="D647" s="11"/>
@@ -9632,7 +9625,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="11"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="9"/>
       <c r="C648" s="10"/>
       <c r="D648" s="11"/>
@@ -9644,7 +9637,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="11"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="9"/>
       <c r="C649" s="10"/>
       <c r="D649" s="11"/>
@@ -9656,7 +9649,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="11"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="9"/>
       <c r="C650" s="10"/>
       <c r="D650" s="11"/>
@@ -9668,7 +9661,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="11"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="9"/>
       <c r="C651" s="10"/>
       <c r="D651" s="11"/>
@@ -9680,7 +9673,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="11"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="9"/>
       <c r="C652" s="10"/>
       <c r="D652" s="11"/>
@@ -9692,7 +9685,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="11"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="9"/>
       <c r="C653" s="10"/>
       <c r="D653" s="11"/>
@@ -9704,7 +9697,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="11"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="9"/>
       <c r="C654" s="10"/>
       <c r="D654" s="11"/>
@@ -9716,7 +9709,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="11"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="9"/>
       <c r="C655" s="10"/>
       <c r="D655" s="11"/>
@@ -9728,7 +9721,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="11"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="9"/>
       <c r="C656" s="10"/>
       <c r="D656" s="11"/>
@@ -9740,7 +9733,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="11"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="9"/>
       <c r="C657" s="10"/>
       <c r="D657" s="11"/>
@@ -9752,7 +9745,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="11"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="9"/>
       <c r="C658" s="10"/>
       <c r="D658" s="11"/>
@@ -9764,7 +9757,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="11"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="9"/>
       <c r="C659" s="10"/>
       <c r="D659" s="11"/>
@@ -9776,7 +9769,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="11"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="9"/>
       <c r="C660" s="10"/>
       <c r="D660" s="11"/>
@@ -9788,7 +9781,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="11"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="9"/>
       <c r="C661" s="10"/>
       <c r="D661" s="11"/>
@@ -9800,7 +9793,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="11"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="9"/>
       <c r="C662" s="10"/>
       <c r="D662" s="11"/>
@@ -9812,7 +9805,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="11"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="9"/>
       <c r="C663" s="10"/>
       <c r="D663" s="11"/>
@@ -9824,7 +9817,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="11"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="9"/>
       <c r="C664" s="10"/>
       <c r="D664" s="11"/>
@@ -9836,7 +9829,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="11"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="9"/>
       <c r="C665" s="10"/>
       <c r="D665" s="11"/>
@@ -9848,7 +9841,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="11"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="9"/>
       <c r="C666" s="10"/>
       <c r="D666" s="11"/>
@@ -9860,7 +9853,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="11"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="9"/>
       <c r="C667" s="10"/>
       <c r="D667" s="11"/>
@@ -9872,7 +9865,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="11"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="9"/>
       <c r="C668" s="10"/>
       <c r="D668" s="11"/>
@@ -9884,7 +9877,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="11"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="9"/>
       <c r="C669" s="10"/>
       <c r="D669" s="11"/>
@@ -9896,7 +9889,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="11"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="9"/>
       <c r="C670" s="10"/>
       <c r="D670" s="11"/>
@@ -9908,7 +9901,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="11"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="9"/>
       <c r="C671" s="10"/>
       <c r="D671" s="11"/>
@@ -9920,7 +9913,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="11"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="9"/>
       <c r="C672" s="10"/>
       <c r="D672" s="11"/>
@@ -9932,7 +9925,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="11"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="9"/>
       <c r="C673" s="10"/>
       <c r="D673" s="11"/>
@@ -9944,7 +9937,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="11"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="9"/>
       <c r="C674" s="10"/>
       <c r="D674" s="11"/>
@@ -9956,7 +9949,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="11"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="9"/>
       <c r="C675" s="10"/>
       <c r="D675" s="11"/>
@@ -9968,7 +9961,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="11"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="9"/>
       <c r="C676" s="10"/>
       <c r="D676" s="11"/>
@@ -9980,7 +9973,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="11"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="9"/>
       <c r="C677" s="10"/>
       <c r="D677" s="11"/>
@@ -9992,7 +9985,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="11"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="9"/>
       <c r="C678" s="10"/>
       <c r="D678" s="11"/>
@@ -10004,7 +9997,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="11"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="9"/>
       <c r="C679" s="10"/>
       <c r="D679" s="11"/>
@@ -10016,7 +10009,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="11"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="9"/>
       <c r="C680" s="10"/>
       <c r="D680" s="11"/>
@@ -10028,7 +10021,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="11"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="9"/>
       <c r="C681" s="10"/>
       <c r="D681" s="11"/>
@@ -10040,7 +10033,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="11"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="9"/>
       <c r="C682" s="10"/>
       <c r="D682" s="11"/>
@@ -10052,7 +10045,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="11"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="9"/>
       <c r="C683" s="10"/>
       <c r="D683" s="11"/>
@@ -10064,7 +10057,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="11"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="9"/>
       <c r="C684" s="10"/>
       <c r="D684" s="11"/>
@@ -10076,7 +10069,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="11"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="9"/>
       <c r="C685" s="10"/>
       <c r="D685" s="11"/>
@@ -10088,7 +10081,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="11"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="9"/>
       <c r="C686" s="10"/>
       <c r="D686" s="11"/>
@@ -10100,7 +10093,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="11"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="9"/>
       <c r="C687" s="10"/>
       <c r="D687" s="11"/>
@@ -10112,7 +10105,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="11"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="9"/>
       <c r="C688" s="10"/>
       <c r="D688" s="11"/>
@@ -10124,7 +10117,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="11"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="9"/>
       <c r="C689" s="10"/>
       <c r="D689" s="11"/>
@@ -10136,7 +10129,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="11"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="9"/>
       <c r="C690" s="10"/>
       <c r="D690" s="11"/>
@@ -10148,7 +10141,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="11"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="9"/>
       <c r="C691" s="10"/>
       <c r="D691" s="11"/>
@@ -10160,7 +10153,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="11"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="9"/>
       <c r="C692" s="10"/>
       <c r="D692" s="11"/>
@@ -10172,7 +10165,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="11"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="9"/>
       <c r="C693" s="10"/>
       <c r="D693" s="11"/>
@@ -10184,7 +10177,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="11"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="9"/>
       <c r="C694" s="10"/>
       <c r="D694" s="11"/>
@@ -10196,7 +10189,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="11"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="9"/>
       <c r="C695" s="10"/>
       <c r="D695" s="11"/>
@@ -10208,7 +10201,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="11"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="9"/>
       <c r="C696" s="10"/>
       <c r="D696" s="11"/>
@@ -10220,7 +10213,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="11"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="9"/>
       <c r="C697" s="10"/>
       <c r="D697" s="11"/>
@@ -10232,7 +10225,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="11"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="9"/>
       <c r="C698" s="10"/>
       <c r="D698" s="11"/>
@@ -10244,7 +10237,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="11"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="9"/>
       <c r="C699" s="10"/>
       <c r="D699" s="11"/>
@@ -10256,7 +10249,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="11"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="9"/>
       <c r="C700" s="10"/>
       <c r="D700" s="11"/>
@@ -10268,7 +10261,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="11"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="9"/>
       <c r="C701" s="10"/>
       <c r="D701" s="11"/>
@@ -10280,7 +10273,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="11"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="9"/>
       <c r="C702" s="10"/>
       <c r="D702" s="11"/>
@@ -10292,7 +10285,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="11"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="9"/>
       <c r="C703" s="10"/>
       <c r="D703" s="11"/>
@@ -10304,7 +10297,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="11"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="9"/>
       <c r="C704" s="10"/>
       <c r="D704" s="11"/>
@@ -10316,7 +10309,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="11"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="9"/>
       <c r="C705" s="10"/>
       <c r="D705" s="11"/>
@@ -10328,7 +10321,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="11"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="9"/>
       <c r="C706" s="10"/>
       <c r="D706" s="11"/>
@@ -10340,7 +10333,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="11"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="9"/>
       <c r="C707" s="10"/>
       <c r="D707" s="11"/>
@@ -10352,7 +10345,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="11"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="9"/>
       <c r="C708" s="10"/>
       <c r="D708" s="11"/>
@@ -10364,7 +10357,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="11"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="9"/>
       <c r="C709" s="10"/>
       <c r="D709" s="11"/>
@@ -10376,7 +10369,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="11"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="9"/>
       <c r="C710" s="10"/>
       <c r="D710" s="11"/>
@@ -10388,7 +10381,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="11"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="9"/>
       <c r="C711" s="10"/>
       <c r="D711" s="11"/>
@@ -10400,7 +10393,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="11"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="9"/>
       <c r="C712" s="10"/>
       <c r="D712" s="11"/>
@@ -10412,7 +10405,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="11"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="9"/>
       <c r="C713" s="10"/>
       <c r="D713" s="11"/>
@@ -10424,7 +10417,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="11"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="9"/>
       <c r="C714" s="10"/>
       <c r="D714" s="11"/>
@@ -10436,7 +10429,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="11"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="9"/>
       <c r="C715" s="10"/>
       <c r="D715" s="11"/>
@@ -10448,7 +10441,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="11"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="9"/>
       <c r="C716" s="10"/>
       <c r="D716" s="11"/>
@@ -10460,7 +10453,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="11"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="9"/>
       <c r="C717" s="10"/>
       <c r="D717" s="11"/>
@@ -10472,7 +10465,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="11"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="9"/>
       <c r="C718" s="10"/>
       <c r="D718" s="11"/>
@@ -10484,7 +10477,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="11"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="9"/>
       <c r="C719" s="10"/>
       <c r="D719" s="11"/>
@@ -10496,7 +10489,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="11"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="9"/>
       <c r="C720" s="10"/>
       <c r="D720" s="11"/>
@@ -10508,7 +10501,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="11"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="9"/>
       <c r="C721" s="10"/>
       <c r="D721" s="11"/>
@@ -10520,7 +10513,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="11"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="9"/>
       <c r="C722" s="10"/>
       <c r="D722" s="11"/>
@@ -10532,7 +10525,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="11"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="9"/>
       <c r="C723" s="10"/>
       <c r="D723" s="11"/>
@@ -10544,7 +10537,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="11"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="9"/>
       <c r="C724" s="10"/>
       <c r="D724" s="11"/>
@@ -10556,7 +10549,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="11"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="9"/>
       <c r="C725" s="10"/>
       <c r="D725" s="11"/>
@@ -10568,7 +10561,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="11"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="9"/>
       <c r="C726" s="10"/>
       <c r="D726" s="11"/>
@@ -10580,7 +10573,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="11"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="9"/>
       <c r="C727" s="10"/>
       <c r="D727" s="11"/>
@@ -10592,7 +10585,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="11"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="9"/>
       <c r="C728" s="10"/>
       <c r="D728" s="11"/>
@@ -10604,7 +10597,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="11"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="9"/>
       <c r="C729" s="10"/>
       <c r="D729" s="11"/>
@@ -10616,7 +10609,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="11"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="9"/>
       <c r="C730" s="10"/>
       <c r="D730" s="11"/>
@@ -10628,7 +10621,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="11"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="9"/>
       <c r="C731" s="10"/>
       <c r="D731" s="11"/>
@@ -10640,7 +10633,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="11"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="9"/>
       <c r="C732" s="10"/>
       <c r="D732" s="11"/>
@@ -10652,7 +10645,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="11"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="9"/>
       <c r="C733" s="10"/>
       <c r="D733" s="11"/>
@@ -10664,7 +10657,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="11"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="9"/>
       <c r="C734" s="10"/>
       <c r="D734" s="11"/>
@@ -10676,7 +10669,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="11"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="9"/>
       <c r="C735" s="10"/>
       <c r="D735" s="11"/>
@@ -10688,7 +10681,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="11"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="9"/>
       <c r="C736" s="10"/>
       <c r="D736" s="11"/>
@@ -10700,7 +10693,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="11"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="9"/>
       <c r="C737" s="10"/>
       <c r="D737" s="11"/>
@@ -10712,7 +10705,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="11"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="9"/>
       <c r="C738" s="10"/>
       <c r="D738" s="11"/>
@@ -10724,7 +10717,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="11"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="9"/>
       <c r="C739" s="10"/>
       <c r="D739" s="11"/>
@@ -10736,7 +10729,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="11"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="9"/>
       <c r="C740" s="10"/>
       <c r="D740" s="11"/>
@@ -10748,7 +10741,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="11"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="9"/>
       <c r="C741" s="10"/>
       <c r="D741" s="11"/>
@@ -10760,7 +10753,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="11"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="9"/>
       <c r="C742" s="10"/>
       <c r="D742" s="11"/>
@@ -10772,7 +10765,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="11"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="9"/>
       <c r="C743" s="10"/>
       <c r="D743" s="11"/>
@@ -10784,7 +10777,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="11"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="9"/>
       <c r="C744" s="10"/>
       <c r="D744" s="11"/>
@@ -10796,7 +10789,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="11"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="9"/>
       <c r="C745" s="10"/>
       <c r="D745" s="11"/>
@@ -10808,7 +10801,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="11"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="9"/>
       <c r="C746" s="10"/>
       <c r="D746" s="11"/>
@@ -10820,7 +10813,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="11"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="9"/>
       <c r="C747" s="10"/>
       <c r="D747" s="11"/>
@@ -10832,7 +10825,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="11"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="9"/>
       <c r="C748" s="10"/>
       <c r="D748" s="11"/>
@@ -10844,7 +10837,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="11"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="9"/>
       <c r="C749" s="10"/>
       <c r="D749" s="11"/>
@@ -10856,7 +10849,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="11"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="9"/>
       <c r="C750" s="10"/>
       <c r="D750" s="11"/>
@@ -10868,7 +10861,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="11"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="9"/>
       <c r="C751" s="10"/>
       <c r="D751" s="11"/>
@@ -10880,7 +10873,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="11"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="9"/>
       <c r="C752" s="10"/>
       <c r="D752" s="11"/>
@@ -10892,7 +10885,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="11"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="9"/>
       <c r="C753" s="10"/>
       <c r="D753" s="11"/>
@@ -10904,7 +10897,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="11"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="9"/>
       <c r="C754" s="10"/>
       <c r="D754" s="11"/>
@@ -10916,7 +10909,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="11"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="9"/>
       <c r="C755" s="10"/>
       <c r="D755" s="11"/>
@@ -10928,7 +10921,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="11"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="9"/>
       <c r="C756" s="10"/>
       <c r="D756" s="11"/>
@@ -10940,7 +10933,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="11"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="9"/>
       <c r="C757" s="10"/>
       <c r="D757" s="11"/>
@@ -10952,7 +10945,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="11"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="9"/>
       <c r="C758" s="10"/>
       <c r="D758" s="11"/>
@@ -10964,7 +10957,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="11"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="9"/>
       <c r="C759" s="10"/>
       <c r="D759" s="11"/>
@@ -10976,7 +10969,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="11"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="9"/>
       <c r="C760" s="10"/>
       <c r="D760" s="11"/>
@@ -10988,7 +10981,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="11"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="9"/>
       <c r="C761" s="10"/>
       <c r="D761" s="11"/>
@@ -11000,7 +10993,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="11"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="9"/>
       <c r="C762" s="10"/>
       <c r="D762" s="11"/>
@@ -11012,7 +11005,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="11"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="9"/>
       <c r="C763" s="10"/>
       <c r="D763" s="11"/>
@@ -11024,7 +11017,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="11"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="9"/>
       <c r="C764" s="10"/>
       <c r="D764" s="11"/>
@@ -11036,7 +11029,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="11"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="9"/>
       <c r="C765" s="10"/>
       <c r="D765" s="11"/>
@@ -11048,7 +11041,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="11"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="9"/>
       <c r="C766" s="10"/>
       <c r="D766" s="11"/>
@@ -11060,7 +11053,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="11"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="9"/>
       <c r="C767" s="10"/>
       <c r="D767" s="11"/>
@@ -11072,7 +11065,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="11"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="9"/>
       <c r="C768" s="10"/>
       <c r="D768" s="11"/>
@@ -11084,7 +11077,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="11"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="9"/>
       <c r="C769" s="10"/>
       <c r="D769" s="11"/>
@@ -11096,7 +11089,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="11"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="9"/>
       <c r="C770" s="10"/>
       <c r="D770" s="11"/>
@@ -11108,7 +11101,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="11"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="9"/>
       <c r="C771" s="10"/>
       <c r="D771" s="11"/>
@@ -11120,7 +11113,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="11"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="9"/>
       <c r="C772" s="10"/>
       <c r="D772" s="11"/>
@@ -11132,7 +11125,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="11"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="9"/>
       <c r="C773" s="10"/>
       <c r="D773" s="11"/>
@@ -11144,7 +11137,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="11"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="9"/>
       <c r="C774" s="10"/>
       <c r="D774" s="11"/>
@@ -11156,7 +11149,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="11"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="9"/>
       <c r="C775" s="10"/>
       <c r="D775" s="11"/>
@@ -11168,7 +11161,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="11"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="9"/>
       <c r="C776" s="10"/>
       <c r="D776" s="11"/>
@@ -11180,7 +11173,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="11"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="9"/>
       <c r="C777" s="10"/>
       <c r="D777" s="11"/>
@@ -11192,7 +11185,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="11"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="9"/>
       <c r="C778" s="10"/>
       <c r="D778" s="11"/>
@@ -11204,7 +11197,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="11"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="9"/>
       <c r="C779" s="10"/>
       <c r="D779" s="11"/>
@@ -11216,7 +11209,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="11"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="9"/>
       <c r="C780" s="10"/>
       <c r="D780" s="11"/>
@@ -11228,7 +11221,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="11"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="9"/>
       <c r="C781" s="10"/>
       <c r="D781" s="11"/>
@@ -11240,7 +11233,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="11"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="9"/>
       <c r="C782" s="10"/>
       <c r="D782" s="11"/>
@@ -11252,7 +11245,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="11"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="9"/>
       <c r="C783" s="10"/>
       <c r="D783" s="11"/>
@@ -11264,7 +11257,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="11"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="9"/>
       <c r="C784" s="10"/>
       <c r="D784" s="11"/>
@@ -11276,7 +11269,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="11"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="9"/>
       <c r="C785" s="10"/>
       <c r="D785" s="11"/>
@@ -11288,7 +11281,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="11"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="9"/>
       <c r="C786" s="10"/>
       <c r="D786" s="11"/>
@@ -11300,7 +11293,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="11"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="9"/>
       <c r="C787" s="10"/>
       <c r="D787" s="11"/>
@@ -11312,7 +11305,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="11"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="9"/>
       <c r="C788" s="10"/>
       <c r="D788" s="11"/>
@@ -11324,7 +11317,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="11"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="9"/>
       <c r="C789" s="10"/>
       <c r="D789" s="11"/>
@@ -11336,7 +11329,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="11"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="9"/>
       <c r="C790" s="10"/>
       <c r="D790" s="11"/>
@@ -11348,7 +11341,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="11"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="9"/>
       <c r="C791" s="10"/>
       <c r="D791" s="11"/>
@@ -11360,7 +11353,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="11"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="9"/>
       <c r="C792" s="10"/>
       <c r="D792" s="11"/>
@@ -11372,7 +11365,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="11"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="9"/>
       <c r="C793" s="10"/>
       <c r="D793" s="11"/>
@@ -11384,7 +11377,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="11"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="9"/>
       <c r="C794" s="10"/>
       <c r="D794" s="11"/>
@@ -11396,7 +11389,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="11"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="9"/>
       <c r="C795" s="10"/>
       <c r="D795" s="11"/>
@@ -11408,7 +11401,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="11"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="9"/>
       <c r="C796" s="10"/>
       <c r="D796" s="11"/>
@@ -11420,7 +11413,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="11"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="9"/>
       <c r="C797" s="10"/>
       <c r="D797" s="11"/>
@@ -11432,7 +11425,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="11"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="9"/>
       <c r="C798" s="10"/>
       <c r="D798" s="11"/>
@@ -11444,7 +11437,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="11"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="9"/>
       <c r="C799" s="10"/>
       <c r="D799" s="11"/>
@@ -11456,7 +11449,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="11"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="9"/>
       <c r="C800" s="10"/>
       <c r="D800" s="11"/>
@@ -11468,7 +11461,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="11"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="9"/>
       <c r="C801" s="10"/>
       <c r="D801" s="11"/>
@@ -11480,7 +11473,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="11"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="9"/>
       <c r="C802" s="10"/>
       <c r="D802" s="11"/>
@@ -11492,7 +11485,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="11"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="9"/>
       <c r="C803" s="10"/>
       <c r="D803" s="11"/>
@@ -11504,7 +11497,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="11"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="9"/>
       <c r="C804" s="10"/>
       <c r="D804" s="11"/>
@@ -11516,7 +11509,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="11"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="9"/>
       <c r="C805" s="10"/>
       <c r="D805" s="11"/>
@@ -11528,7 +11521,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="11"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="9"/>
       <c r="C806" s="10"/>
       <c r="D806" s="11"/>
@@ -11540,7 +11533,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="11"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="9"/>
       <c r="C807" s="10"/>
       <c r="D807" s="11"/>
@@ -11552,7 +11545,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="11"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="9"/>
       <c r="C808" s="10"/>
       <c r="D808" s="11"/>
@@ -11564,7 +11557,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="11"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="9"/>
       <c r="C809" s="10"/>
       <c r="D809" s="11"/>
@@ -11576,7 +11569,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="11"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="9"/>
       <c r="C810" s="10"/>
       <c r="D810" s="11"/>
@@ -11588,7 +11581,7 @@
       <c r="J810" s="11"/>
       <c r="K810" s="11"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="9"/>
       <c r="C811" s="10"/>
       <c r="D811" s="11"/>
@@ -11600,7 +11593,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="11"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="9"/>
       <c r="C812" s="10"/>
       <c r="D812" s="11"/>
@@ -11612,7 +11605,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="11"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="9"/>
       <c r="C813" s="10"/>
       <c r="D813" s="11"/>
@@ -11624,7 +11617,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="11"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="9"/>
       <c r="C814" s="10"/>
       <c r="D814" s="11"/>
@@ -11636,7 +11629,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="11"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="9"/>
       <c r="C815" s="10"/>
       <c r="D815" s="11"/>
@@ -11648,7 +11641,7 @@
       <c r="J815" s="11"/>
       <c r="K815" s="11"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="9"/>
       <c r="C816" s="10"/>
       <c r="D816" s="11"/>
@@ -11660,7 +11653,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="11"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="9"/>
       <c r="C817" s="10"/>
       <c r="D817" s="11"/>
@@ -11672,7 +11665,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="11"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="9"/>
       <c r="C818" s="10"/>
       <c r="D818" s="11"/>
@@ -11684,7 +11677,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="11"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="9"/>
       <c r="C819" s="10"/>
       <c r="D819" s="11"/>
@@ -11696,7 +11689,7 @@
       <c r="J819" s="11"/>
       <c r="K819" s="11"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="9"/>
       <c r="C820" s="10"/>
       <c r="D820" s="11"/>
@@ -11708,7 +11701,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="11"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="9"/>
       <c r="C821" s="10"/>
       <c r="D821" s="11"/>
@@ -11720,7 +11713,7 @@
       <c r="J821" s="11"/>
       <c r="K821" s="11"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="9"/>
       <c r="C822" s="10"/>
       <c r="D822" s="11"/>
@@ -11732,7 +11725,7 @@
       <c r="J822" s="11"/>
       <c r="K822" s="11"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="9"/>
       <c r="C823" s="10"/>
       <c r="D823" s="11"/>
@@ -11744,7 +11737,7 @@
       <c r="J823" s="11"/>
       <c r="K823" s="11"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="9"/>
       <c r="C824" s="10"/>
       <c r="D824" s="11"/>
@@ -11756,7 +11749,7 @@
       <c r="J824" s="11"/>
       <c r="K824" s="11"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="9"/>
       <c r="C825" s="10"/>
       <c r="D825" s="11"/>
@@ -11768,7 +11761,7 @@
       <c r="J825" s="11"/>
       <c r="K825" s="11"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="9"/>
       <c r="C826" s="10"/>
       <c r="D826" s="11"/>
@@ -11780,7 +11773,7 @@
       <c r="J826" s="11"/>
       <c r="K826" s="11"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="9"/>
       <c r="C827" s="10"/>
       <c r="D827" s="11"/>
@@ -11792,7 +11785,7 @@
       <c r="J827" s="11"/>
       <c r="K827" s="11"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="9"/>
       <c r="C828" s="10"/>
       <c r="D828" s="11"/>
@@ -11804,7 +11797,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="11"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="9"/>
       <c r="C829" s="10"/>
       <c r="D829" s="11"/>
@@ -11816,7 +11809,7 @@
       <c r="J829" s="11"/>
       <c r="K829" s="11"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="9"/>
       <c r="C830" s="10"/>
       <c r="D830" s="11"/>
@@ -11828,7 +11821,7 @@
       <c r="J830" s="11"/>
       <c r="K830" s="11"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="9"/>
       <c r="C831" s="10"/>
       <c r="D831" s="11"/>
@@ -11840,7 +11833,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="11"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="9"/>
       <c r="C832" s="10"/>
       <c r="D832" s="11"/>
@@ -11852,7 +11845,7 @@
       <c r="J832" s="11"/>
       <c r="K832" s="11"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="9"/>
       <c r="C833" s="10"/>
       <c r="D833" s="11"/>
@@ -11864,7 +11857,7 @@
       <c r="J833" s="11"/>
       <c r="K833" s="11"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="9"/>
       <c r="C834" s="10"/>
       <c r="D834" s="11"/>
@@ -11876,7 +11869,7 @@
       <c r="J834" s="11"/>
       <c r="K834" s="11"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="9"/>
       <c r="C835" s="10"/>
       <c r="D835" s="11"/>
@@ -11888,7 +11881,7 @@
       <c r="J835" s="11"/>
       <c r="K835" s="11"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="9"/>
       <c r="C836" s="10"/>
       <c r="D836" s="11"/>
@@ -11900,7 +11893,7 @@
       <c r="J836" s="11"/>
       <c r="K836" s="11"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A837" s="9"/>
       <c r="C837" s="10"/>
       <c r="D837" s="11"/>
@@ -11912,7 +11905,7 @@
       <c r="J837" s="11"/>
       <c r="K837" s="11"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="9"/>
       <c r="C838" s="10"/>
       <c r="D838" s="11"/>
@@ -11924,7 +11917,7 @@
       <c r="J838" s="11"/>
       <c r="K838" s="11"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="9"/>
       <c r="C839" s="10"/>
       <c r="D839" s="11"/>
@@ -11936,7 +11929,7 @@
       <c r="J839" s="11"/>
       <c r="K839" s="11"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A840" s="9"/>
       <c r="C840" s="10"/>
       <c r="D840" s="11"/>
@@ -11948,7 +11941,7 @@
       <c r="J840" s="11"/>
       <c r="K840" s="11"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="9"/>
       <c r="C841" s="10"/>
       <c r="D841" s="11"/>
@@ -11960,7 +11953,7 @@
       <c r="J841" s="11"/>
       <c r="K841" s="11"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A842" s="9"/>
       <c r="C842" s="10"/>
       <c r="D842" s="11"/>
@@ -11972,7 +11965,7 @@
       <c r="J842" s="11"/>
       <c r="K842" s="11"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A843" s="9"/>
       <c r="C843" s="10"/>
       <c r="D843" s="11"/>
@@ -11984,7 +11977,7 @@
       <c r="J843" s="11"/>
       <c r="K843" s="11"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A844" s="9"/>
       <c r="C844" s="10"/>
       <c r="D844" s="11"/>
@@ -11996,7 +11989,7 @@
       <c r="J844" s="11"/>
       <c r="K844" s="11"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A845" s="9"/>
       <c r="C845" s="10"/>
       <c r="D845" s="11"/>
@@ -12008,7 +12001,7 @@
       <c r="J845" s="11"/>
       <c r="K845" s="11"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A846" s="9"/>
       <c r="C846" s="10"/>
       <c r="D846" s="11"/>
@@ -12020,7 +12013,7 @@
       <c r="J846" s="11"/>
       <c r="K846" s="11"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A847" s="9"/>
       <c r="C847" s="10"/>
       <c r="D847" s="11"/>
@@ -12032,7 +12025,7 @@
       <c r="J847" s="11"/>
       <c r="K847" s="11"/>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A848" s="9"/>
       <c r="C848" s="10"/>
       <c r="D848" s="11"/>
@@ -12044,7 +12037,7 @@
       <c r="J848" s="11"/>
       <c r="K848" s="11"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A849" s="9"/>
       <c r="C849" s="10"/>
       <c r="D849" s="11"/>
@@ -12056,7 +12049,7 @@
       <c r="J849" s="11"/>
       <c r="K849" s="11"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A850" s="9"/>
       <c r="C850" s="10"/>
       <c r="D850" s="11"/>
@@ -12068,7 +12061,7 @@
       <c r="J850" s="11"/>
       <c r="K850" s="11"/>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A851" s="9"/>
       <c r="C851" s="10"/>
       <c r="D851" s="11"/>
@@ -12080,7 +12073,7 @@
       <c r="J851" s="11"/>
       <c r="K851" s="11"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A852" s="9"/>
       <c r="C852" s="10"/>
       <c r="D852" s="11"/>
@@ -12092,7 +12085,7 @@
       <c r="J852" s="11"/>
       <c r="K852" s="11"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A853" s="9"/>
       <c r="C853" s="10"/>
       <c r="D853" s="11"/>
@@ -12104,7 +12097,7 @@
       <c r="J853" s="11"/>
       <c r="K853" s="11"/>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A854" s="9"/>
       <c r="C854" s="10"/>
       <c r="D854" s="11"/>
@@ -12116,7 +12109,7 @@
       <c r="J854" s="11"/>
       <c r="K854" s="11"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A855" s="9"/>
       <c r="C855" s="10"/>
       <c r="D855" s="11"/>
@@ -12128,7 +12121,7 @@
       <c r="J855" s="11"/>
       <c r="K855" s="11"/>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A856" s="9"/>
       <c r="C856" s="10"/>
       <c r="D856" s="11"/>
@@ -12140,7 +12133,7 @@
       <c r="J856" s="11"/>
       <c r="K856" s="11"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A857" s="9"/>
       <c r="C857" s="10"/>
       <c r="D857" s="11"/>
@@ -12152,7 +12145,7 @@
       <c r="J857" s="11"/>
       <c r="K857" s="11"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A858" s="9"/>
       <c r="C858" s="10"/>
       <c r="D858" s="11"/>
@@ -12164,7 +12157,7 @@
       <c r="J858" s="11"/>
       <c r="K858" s="11"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A859" s="9"/>
       <c r="C859" s="10"/>
       <c r="D859" s="11"/>
@@ -12176,7 +12169,7 @@
       <c r="J859" s="11"/>
       <c r="K859" s="11"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A860" s="9"/>
       <c r="C860" s="10"/>
       <c r="D860" s="11"/>
@@ -12188,7 +12181,7 @@
       <c r="J860" s="11"/>
       <c r="K860" s="11"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A861" s="9"/>
       <c r="C861" s="10"/>
       <c r="D861" s="11"/>
@@ -12200,7 +12193,7 @@
       <c r="J861" s="11"/>
       <c r="K861" s="11"/>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A862" s="9"/>
       <c r="C862" s="10"/>
       <c r="D862" s="11"/>
@@ -12212,7 +12205,7 @@
       <c r="J862" s="11"/>
       <c r="K862" s="11"/>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A863" s="9"/>
       <c r="C863" s="10"/>
       <c r="D863" s="11"/>
@@ -12224,7 +12217,7 @@
       <c r="J863" s="11"/>
       <c r="K863" s="11"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A864" s="9"/>
       <c r="C864" s="10"/>
       <c r="D864" s="11"/>
@@ -12236,7 +12229,7 @@
       <c r="J864" s="11"/>
       <c r="K864" s="11"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A865" s="9"/>
       <c r="C865" s="10"/>
       <c r="D865" s="11"/>
@@ -12248,7 +12241,7 @@
       <c r="J865" s="11"/>
       <c r="K865" s="11"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A866" s="9"/>
       <c r="C866" s="10"/>
       <c r="D866" s="11"/>
@@ -12260,7 +12253,7 @@
       <c r="J866" s="11"/>
       <c r="K866" s="11"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A867" s="9"/>
       <c r="C867" s="10"/>
       <c r="D867" s="11"/>
@@ -12272,7 +12265,7 @@
       <c r="J867" s="11"/>
       <c r="K867" s="11"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A868" s="9"/>
       <c r="C868" s="10"/>
       <c r="D868" s="11"/>
@@ -12284,7 +12277,7 @@
       <c r="J868" s="11"/>
       <c r="K868" s="11"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A869" s="9"/>
       <c r="C869" s="10"/>
       <c r="D869" s="11"/>
@@ -12296,7 +12289,7 @@
       <c r="J869" s="11"/>
       <c r="K869" s="11"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A870" s="9"/>
       <c r="C870" s="10"/>
       <c r="D870" s="11"/>
@@ -12308,7 +12301,7 @@
       <c r="J870" s="11"/>
       <c r="K870" s="11"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A871" s="9"/>
       <c r="C871" s="10"/>
       <c r="D871" s="11"/>
@@ -12320,7 +12313,7 @@
       <c r="J871" s="11"/>
       <c r="K871" s="11"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A872" s="9"/>
       <c r="C872" s="10"/>
       <c r="D872" s="11"/>
@@ -12332,7 +12325,7 @@
       <c r="J872" s="11"/>
       <c r="K872" s="11"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A873" s="9"/>
       <c r="C873" s="10"/>
       <c r="D873" s="11"/>
@@ -12344,7 +12337,7 @@
       <c r="J873" s="11"/>
       <c r="K873" s="11"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A874" s="9"/>
       <c r="C874" s="10"/>
       <c r="D874" s="11"/>
@@ -12356,7 +12349,7 @@
       <c r="J874" s="11"/>
       <c r="K874" s="11"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A875" s="9"/>
       <c r="C875" s="10"/>
       <c r="D875" s="11"/>
@@ -12368,7 +12361,7 @@
       <c r="J875" s="11"/>
       <c r="K875" s="11"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A876" s="9"/>
       <c r="C876" s="10"/>
       <c r="D876" s="11"/>
@@ -12380,7 +12373,7 @@
       <c r="J876" s="11"/>
       <c r="K876" s="11"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A877" s="9"/>
       <c r="C877" s="10"/>
       <c r="D877" s="11"/>
@@ -12392,7 +12385,7 @@
       <c r="J877" s="11"/>
       <c r="K877" s="11"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A878" s="9"/>
       <c r="C878" s="10"/>
       <c r="D878" s="11"/>
@@ -12404,7 +12397,7 @@
       <c r="J878" s="11"/>
       <c r="K878" s="11"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A879" s="9"/>
       <c r="C879" s="10"/>
       <c r="D879" s="11"/>
@@ -12416,7 +12409,7 @@
       <c r="J879" s="11"/>
       <c r="K879" s="11"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A880" s="9"/>
       <c r="C880" s="10"/>
       <c r="D880" s="11"/>
@@ -12428,7 +12421,7 @@
       <c r="J880" s="11"/>
       <c r="K880" s="11"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A881" s="9"/>
       <c r="C881" s="10"/>
       <c r="D881" s="11"/>
@@ -12440,7 +12433,7 @@
       <c r="J881" s="11"/>
       <c r="K881" s="11"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A882" s="9"/>
       <c r="C882" s="10"/>
       <c r="D882" s="11"/>
@@ -12452,7 +12445,7 @@
       <c r="J882" s="11"/>
       <c r="K882" s="11"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A883" s="9"/>
       <c r="C883" s="10"/>
       <c r="D883" s="11"/>
@@ -12464,7 +12457,7 @@
       <c r="J883" s="11"/>
       <c r="K883" s="11"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A884" s="9"/>
       <c r="C884" s="10"/>
       <c r="D884" s="11"/>
@@ -12476,7 +12469,7 @@
       <c r="J884" s="11"/>
       <c r="K884" s="11"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A885" s="9"/>
       <c r="C885" s="10"/>
       <c r="D885" s="11"/>
@@ -12488,7 +12481,7 @@
       <c r="J885" s="11"/>
       <c r="K885" s="11"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A886" s="9"/>
       <c r="C886" s="10"/>
       <c r="D886" s="11"/>
@@ -12500,7 +12493,7 @@
       <c r="J886" s="11"/>
       <c r="K886" s="11"/>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A887" s="9"/>
       <c r="C887" s="10"/>
       <c r="D887" s="11"/>
@@ -12512,7 +12505,7 @@
       <c r="J887" s="11"/>
       <c r="K887" s="11"/>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A888" s="9"/>
       <c r="C888" s="10"/>
       <c r="D888" s="11"/>
@@ -12524,7 +12517,7 @@
       <c r="J888" s="11"/>
       <c r="K888" s="11"/>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A889" s="9"/>
       <c r="C889" s="10"/>
       <c r="D889" s="11"/>
@@ -12536,7 +12529,7 @@
       <c r="J889" s="11"/>
       <c r="K889" s="11"/>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A890" s="9"/>
       <c r="C890" s="10"/>
       <c r="D890" s="11"/>
@@ -12548,7 +12541,7 @@
       <c r="J890" s="11"/>
       <c r="K890" s="11"/>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A891" s="9"/>
       <c r="C891" s="10"/>
       <c r="D891" s="11"/>
@@ -12560,7 +12553,7 @@
       <c r="J891" s="11"/>
       <c r="K891" s="11"/>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A892" s="9"/>
       <c r="C892" s="10"/>
       <c r="D892" s="11"/>
@@ -12572,7 +12565,7 @@
       <c r="J892" s="11"/>
       <c r="K892" s="11"/>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A893" s="9"/>
       <c r="C893" s="10"/>
       <c r="D893" s="11"/>
@@ -12584,7 +12577,7 @@
       <c r="J893" s="11"/>
       <c r="K893" s="11"/>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A894" s="9"/>
       <c r="C894" s="10"/>
       <c r="D894" s="11"/>
@@ -12596,7 +12589,7 @@
       <c r="J894" s="11"/>
       <c r="K894" s="11"/>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A895" s="9"/>
       <c r="C895" s="10"/>
       <c r="D895" s="11"/>
@@ -12608,7 +12601,7 @@
       <c r="J895" s="11"/>
       <c r="K895" s="11"/>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A896" s="9"/>
       <c r="C896" s="10"/>
       <c r="D896" s="11"/>
@@ -12620,7 +12613,7 @@
       <c r="J896" s="11"/>
       <c r="K896" s="11"/>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A897" s="9"/>
       <c r="C897" s="10"/>
       <c r="D897" s="11"/>
@@ -12632,7 +12625,7 @@
       <c r="J897" s="11"/>
       <c r="K897" s="11"/>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A898" s="9"/>
       <c r="C898" s="10"/>
       <c r="D898" s="11"/>
@@ -12644,7 +12637,7 @@
       <c r="J898" s="11"/>
       <c r="K898" s="11"/>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A899" s="9"/>
       <c r="C899" s="10"/>
       <c r="D899" s="11"/>
@@ -12656,7 +12649,7 @@
       <c r="J899" s="11"/>
       <c r="K899" s="11"/>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A900" s="9"/>
       <c r="C900" s="10"/>
       <c r="D900" s="11"/>
@@ -12668,7 +12661,7 @@
       <c r="J900" s="11"/>
       <c r="K900" s="11"/>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A901" s="9"/>
       <c r="C901" s="10"/>
       <c r="D901" s="11"/>
@@ -12680,7 +12673,7 @@
       <c r="J901" s="11"/>
       <c r="K901" s="11"/>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A902" s="9"/>
       <c r="C902" s="10"/>
       <c r="D902" s="11"/>
@@ -12692,7 +12685,7 @@
       <c r="J902" s="11"/>
       <c r="K902" s="11"/>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A903" s="9"/>
       <c r="C903" s="10"/>
       <c r="D903" s="11"/>
@@ -12704,7 +12697,7 @@
       <c r="J903" s="11"/>
       <c r="K903" s="11"/>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A904" s="9"/>
       <c r="C904" s="10"/>
       <c r="D904" s="11"/>
@@ -12716,7 +12709,7 @@
       <c r="J904" s="11"/>
       <c r="K904" s="11"/>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A905" s="9"/>
       <c r="C905" s="10"/>
       <c r="D905" s="11"/>
@@ -12728,7 +12721,7 @@
       <c r="J905" s="11"/>
       <c r="K905" s="11"/>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A906" s="9"/>
       <c r="C906" s="10"/>
       <c r="D906" s="11"/>
@@ -12740,7 +12733,7 @@
       <c r="J906" s="11"/>
       <c r="K906" s="11"/>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A907" s="9"/>
       <c r="C907" s="10"/>
       <c r="D907" s="11"/>
@@ -12752,7 +12745,7 @@
       <c r="J907" s="11"/>
       <c r="K907" s="11"/>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A908" s="9"/>
       <c r="C908" s="10"/>
       <c r="D908" s="11"/>
@@ -12764,7 +12757,7 @@
       <c r="J908" s="11"/>
       <c r="K908" s="11"/>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A909" s="9"/>
       <c r="C909" s="10"/>
       <c r="D909" s="11"/>
@@ -12776,7 +12769,7 @@
       <c r="J909" s="11"/>
       <c r="K909" s="11"/>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A910" s="9"/>
       <c r="C910" s="10"/>
       <c r="D910" s="11"/>
@@ -12788,7 +12781,7 @@
       <c r="J910" s="11"/>
       <c r="K910" s="11"/>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A911" s="9"/>
       <c r="C911" s="10"/>
       <c r="D911" s="11"/>
@@ -12800,7 +12793,7 @@
       <c r="J911" s="11"/>
       <c r="K911" s="11"/>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A912" s="9"/>
       <c r="C912" s="10"/>
       <c r="D912" s="11"/>
@@ -12812,7 +12805,7 @@
       <c r="J912" s="11"/>
       <c r="K912" s="11"/>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A913" s="9"/>
       <c r="C913" s="10"/>
       <c r="D913" s="11"/>
@@ -12824,7 +12817,7 @@
       <c r="J913" s="11"/>
       <c r="K913" s="11"/>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A914" s="9"/>
       <c r="C914" s="10"/>
       <c r="D914" s="11"/>
@@ -12836,7 +12829,7 @@
       <c r="J914" s="11"/>
       <c r="K914" s="11"/>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A915" s="9"/>
       <c r="C915" s="10"/>
       <c r="D915" s="11"/>
@@ -12848,7 +12841,7 @@
       <c r="J915" s="11"/>
       <c r="K915" s="11"/>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A916" s="9"/>
       <c r="C916" s="10"/>
       <c r="D916" s="11"/>
@@ -12860,7 +12853,7 @@
       <c r="J916" s="11"/>
       <c r="K916" s="11"/>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A917" s="9"/>
       <c r="C917" s="10"/>
       <c r="D917" s="11"/>
@@ -12872,7 +12865,7 @@
       <c r="J917" s="11"/>
       <c r="K917" s="11"/>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A918" s="9"/>
       <c r="C918" s="10"/>
       <c r="D918" s="11"/>
@@ -12884,7 +12877,7 @@
       <c r="J918" s="11"/>
       <c r="K918" s="11"/>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A919" s="9"/>
       <c r="C919" s="10"/>
       <c r="D919" s="11"/>
@@ -12896,7 +12889,7 @@
       <c r="J919" s="11"/>
       <c r="K919" s="11"/>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A920" s="9"/>
       <c r="C920" s="10"/>
       <c r="D920" s="11"/>
@@ -12908,7 +12901,7 @@
       <c r="J920" s="11"/>
       <c r="K920" s="11"/>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A921" s="9"/>
       <c r="C921" s="10"/>
       <c r="D921" s="11"/>
@@ -12920,7 +12913,7 @@
       <c r="J921" s="11"/>
       <c r="K921" s="11"/>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A922" s="9"/>
       <c r="C922" s="10"/>
       <c r="D922" s="11"/>
@@ -12932,7 +12925,7 @@
       <c r="J922" s="11"/>
       <c r="K922" s="11"/>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A923" s="9"/>
       <c r="C923" s="10"/>
       <c r="D923" s="11"/>
@@ -12944,7 +12937,7 @@
       <c r="J923" s="11"/>
       <c r="K923" s="11"/>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A924" s="9"/>
       <c r="C924" s="10"/>
       <c r="D924" s="11"/>
@@ -12956,7 +12949,7 @@
       <c r="J924" s="11"/>
       <c r="K924" s="11"/>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A925" s="9"/>
       <c r="C925" s="10"/>
       <c r="D925" s="11"/>
@@ -12968,7 +12961,7 @@
       <c r="J925" s="11"/>
       <c r="K925" s="11"/>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A926" s="9"/>
       <c r="C926" s="10"/>
       <c r="D926" s="11"/>
@@ -12980,7 +12973,7 @@
       <c r="J926" s="11"/>
       <c r="K926" s="11"/>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A927" s="9"/>
       <c r="C927" s="10"/>
       <c r="D927" s="11"/>
@@ -12992,7 +12985,7 @@
       <c r="J927" s="11"/>
       <c r="K927" s="11"/>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A928" s="9"/>
       <c r="C928" s="10"/>
       <c r="D928" s="11"/>
@@ -13004,7 +12997,7 @@
       <c r="J928" s="11"/>
       <c r="K928" s="11"/>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A929" s="9"/>
       <c r="C929" s="10"/>
       <c r="D929" s="11"/>
@@ -13016,7 +13009,7 @@
       <c r="J929" s="11"/>
       <c r="K929" s="11"/>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A930" s="9"/>
       <c r="C930" s="10"/>
       <c r="D930" s="11"/>
@@ -13028,7 +13021,7 @@
       <c r="J930" s="11"/>
       <c r="K930" s="11"/>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A931" s="9"/>
       <c r="C931" s="10"/>
       <c r="D931" s="11"/>
@@ -13040,7 +13033,7 @@
       <c r="J931" s="11"/>
       <c r="K931" s="11"/>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A932" s="9"/>
       <c r="C932" s="10"/>
       <c r="D932" s="11"/>
@@ -13052,7 +13045,7 @@
       <c r="J932" s="11"/>
       <c r="K932" s="11"/>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A933" s="9"/>
       <c r="C933" s="10"/>
       <c r="D933" s="11"/>
@@ -13064,7 +13057,7 @@
       <c r="J933" s="11"/>
       <c r="K933" s="11"/>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A934" s="9"/>
       <c r="C934" s="10"/>
       <c r="D934" s="11"/>
@@ -13076,7 +13069,7 @@
       <c r="J934" s="11"/>
       <c r="K934" s="11"/>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A935" s="9"/>
       <c r="C935" s="10"/>
       <c r="D935" s="11"/>
@@ -13088,7 +13081,7 @@
       <c r="J935" s="11"/>
       <c r="K935" s="11"/>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A936" s="9"/>
       <c r="C936" s="10"/>
       <c r="D936" s="11"/>
@@ -13100,7 +13093,7 @@
       <c r="J936" s="11"/>
       <c r="K936" s="11"/>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A937" s="9"/>
       <c r="C937" s="10"/>
       <c r="D937" s="11"/>
@@ -13112,7 +13105,7 @@
       <c r="J937" s="11"/>
       <c r="K937" s="11"/>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A938" s="9"/>
       <c r="C938" s="10"/>
       <c r="D938" s="11"/>
@@ -13124,7 +13117,7 @@
       <c r="J938" s="11"/>
       <c r="K938" s="11"/>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A939" s="9"/>
       <c r="C939" s="10"/>
       <c r="D939" s="11"/>
@@ -13136,7 +13129,7 @@
       <c r="J939" s="11"/>
       <c r="K939" s="11"/>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A940" s="9"/>
       <c r="C940" s="10"/>
       <c r="D940" s="11"/>
@@ -13148,7 +13141,7 @@
       <c r="J940" s="11"/>
       <c r="K940" s="11"/>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A941" s="9"/>
       <c r="C941" s="10"/>
       <c r="D941" s="11"/>
@@ -13160,7 +13153,7 @@
       <c r="J941" s="11"/>
       <c r="K941" s="11"/>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A942" s="9"/>
       <c r="C942" s="10"/>
       <c r="D942" s="11"/>
@@ -13172,7 +13165,7 @@
       <c r="J942" s="11"/>
       <c r="K942" s="11"/>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A943" s="9"/>
       <c r="C943" s="10"/>
       <c r="D943" s="11"/>
@@ -13184,7 +13177,7 @@
       <c r="J943" s="11"/>
       <c r="K943" s="11"/>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A944" s="9"/>
       <c r="C944" s="10"/>
       <c r="D944" s="11"/>
@@ -13196,7 +13189,7 @@
       <c r="J944" s="11"/>
       <c r="K944" s="11"/>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A945" s="9"/>
       <c r="C945" s="10"/>
       <c r="D945" s="11"/>
@@ -13208,7 +13201,7 @@
       <c r="J945" s="11"/>
       <c r="K945" s="11"/>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A946" s="9"/>
       <c r="C946" s="10"/>
       <c r="D946" s="11"/>
@@ -13220,7 +13213,7 @@
       <c r="J946" s="11"/>
       <c r="K946" s="11"/>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A947" s="9"/>
       <c r="C947" s="10"/>
       <c r="D947" s="11"/>
@@ -13232,7 +13225,7 @@
       <c r="J947" s="11"/>
       <c r="K947" s="11"/>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A948" s="9"/>
       <c r="C948" s="10"/>
       <c r="D948" s="11"/>
@@ -13244,7 +13237,7 @@
       <c r="J948" s="11"/>
       <c r="K948" s="11"/>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A949" s="9"/>
       <c r="C949" s="10"/>
       <c r="D949" s="11"/>
@@ -13256,7 +13249,7 @@
       <c r="J949" s="11"/>
       <c r="K949" s="11"/>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A950" s="9"/>
       <c r="C950" s="10"/>
       <c r="D950" s="11"/>
@@ -13268,7 +13261,7 @@
       <c r="J950" s="11"/>
       <c r="K950" s="11"/>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A951" s="9"/>
       <c r="C951" s="10"/>
       <c r="D951" s="11"/>
@@ -13280,7 +13273,7 @@
       <c r="J951" s="11"/>
       <c r="K951" s="11"/>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A952" s="9"/>
       <c r="C952" s="10"/>
       <c r="D952" s="11"/>
@@ -13292,7 +13285,7 @@
       <c r="J952" s="11"/>
       <c r="K952" s="11"/>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A953" s="9"/>
       <c r="C953" s="10"/>
       <c r="D953" s="11"/>
@@ -13304,7 +13297,7 @@
       <c r="J953" s="11"/>
       <c r="K953" s="11"/>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A954" s="9"/>
       <c r="C954" s="10"/>
       <c r="D954" s="11"/>
@@ -13316,7 +13309,7 @@
       <c r="J954" s="11"/>
       <c r="K954" s="11"/>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A955" s="9"/>
       <c r="C955" s="10"/>
       <c r="D955" s="11"/>
@@ -13328,7 +13321,7 @@
       <c r="J955" s="11"/>
       <c r="K955" s="11"/>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A956" s="9"/>
       <c r="C956" s="10"/>
       <c r="D956" s="11"/>
@@ -13340,7 +13333,7 @@
       <c r="J956" s="11"/>
       <c r="K956" s="11"/>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A957" s="9"/>
       <c r="C957" s="10"/>
       <c r="D957" s="11"/>
@@ -13352,7 +13345,7 @@
       <c r="J957" s="11"/>
       <c r="K957" s="11"/>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A958" s="9"/>
       <c r="C958" s="10"/>
       <c r="D958" s="11"/>
@@ -13364,7 +13357,7 @@
       <c r="J958" s="11"/>
       <c r="K958" s="11"/>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A959" s="9"/>
       <c r="C959" s="10"/>
       <c r="D959" s="11"/>
@@ -13376,7 +13369,7 @@
       <c r="J959" s="11"/>
       <c r="K959" s="11"/>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A960" s="9"/>
       <c r="C960" s="10"/>
       <c r="D960" s="11"/>
@@ -13388,7 +13381,7 @@
       <c r="J960" s="11"/>
       <c r="K960" s="11"/>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A961" s="9"/>
       <c r="C961" s="10"/>
       <c r="D961" s="11"/>
@@ -13400,7 +13393,7 @@
       <c r="J961" s="11"/>
       <c r="K961" s="11"/>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A962" s="9"/>
       <c r="C962" s="10"/>
       <c r="D962" s="11"/>
@@ -13412,7 +13405,7 @@
       <c r="J962" s="11"/>
       <c r="K962" s="11"/>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A963" s="9"/>
       <c r="C963" s="10"/>
       <c r="D963" s="11"/>
@@ -13424,7 +13417,7 @@
       <c r="J963" s="11"/>
       <c r="K963" s="11"/>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A964" s="9"/>
       <c r="C964" s="10"/>
       <c r="D964" s="11"/>
@@ -13436,7 +13429,7 @@
       <c r="J964" s="11"/>
       <c r="K964" s="11"/>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A965" s="9"/>
       <c r="C965" s="10"/>
       <c r="D965" s="11"/>
@@ -13448,7 +13441,7 @@
       <c r="J965" s="11"/>
       <c r="K965" s="11"/>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A966" s="9"/>
       <c r="C966" s="10"/>
       <c r="D966" s="11"/>
@@ -13460,7 +13453,7 @@
       <c r="J966" s="11"/>
       <c r="K966" s="11"/>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A967" s="9"/>
       <c r="C967" s="10"/>
       <c r="D967" s="11"/>
@@ -13472,7 +13465,7 @@
       <c r="J967" s="11"/>
       <c r="K967" s="11"/>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A968" s="9"/>
       <c r="C968" s="10"/>
       <c r="D968" s="11"/>
@@ -13484,7 +13477,7 @@
       <c r="J968" s="11"/>
       <c r="K968" s="11"/>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A969" s="9"/>
       <c r="C969" s="10"/>
       <c r="D969" s="11"/>
@@ -13496,7 +13489,7 @@
       <c r="J969" s="11"/>
       <c r="K969" s="11"/>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A970" s="9"/>
       <c r="C970" s="10"/>
       <c r="D970" s="11"/>
@@ -13508,7 +13501,7 @@
       <c r="J970" s="11"/>
       <c r="K970" s="11"/>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A971" s="9"/>
       <c r="C971" s="10"/>
       <c r="D971" s="11"/>
@@ -13520,7 +13513,7 @@
       <c r="J971" s="11"/>
       <c r="K971" s="11"/>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A972" s="9"/>
       <c r="C972" s="10"/>
       <c r="D972" s="11"/>
@@ -13532,7 +13525,7 @@
       <c r="J972" s="11"/>
       <c r="K972" s="11"/>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A973" s="9"/>
       <c r="C973" s="10"/>
       <c r="D973" s="11"/>
@@ -13544,7 +13537,7 @@
       <c r="J973" s="11"/>
       <c r="K973" s="11"/>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A974" s="9"/>
       <c r="C974" s="10"/>
       <c r="D974" s="11"/>
@@ -13556,7 +13549,7 @@
       <c r="J974" s="11"/>
       <c r="K974" s="11"/>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A975" s="9"/>
       <c r="C975" s="10"/>
       <c r="D975" s="11"/>
@@ -13568,7 +13561,7 @@
       <c r="J975" s="11"/>
       <c r="K975" s="11"/>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A976" s="9"/>
       <c r="C976" s="10"/>
       <c r="D976" s="11"/>
@@ -13580,7 +13573,7 @@
       <c r="J976" s="11"/>
       <c r="K976" s="11"/>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A977" s="9"/>
       <c r="C977" s="10"/>
       <c r="D977" s="11"/>
@@ -13592,7 +13585,7 @@
       <c r="J977" s="11"/>
       <c r="K977" s="11"/>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A978" s="9"/>
       <c r="C978" s="10"/>
       <c r="D978" s="11"/>
@@ -13604,7 +13597,7 @@
       <c r="J978" s="11"/>
       <c r="K978" s="11"/>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A979" s="9"/>
       <c r="C979" s="10"/>
       <c r="D979" s="11"/>
@@ -13616,7 +13609,7 @@
       <c r="J979" s="11"/>
       <c r="K979" s="11"/>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A980" s="9"/>
       <c r="C980" s="10"/>
       <c r="D980" s="11"/>
@@ -13628,7 +13621,7 @@
       <c r="J980" s="11"/>
       <c r="K980" s="11"/>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A981" s="9"/>
       <c r="C981" s="10"/>
       <c r="D981" s="11"/>
@@ -13640,7 +13633,7 @@
       <c r="J981" s="11"/>
       <c r="K981" s="11"/>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A982" s="9"/>
       <c r="C982" s="10"/>
       <c r="D982" s="11"/>
@@ -13652,7 +13645,7 @@
       <c r="J982" s="11"/>
       <c r="K982" s="11"/>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A983" s="9"/>
       <c r="C983" s="10"/>
       <c r="D983" s="11"/>
@@ -13664,7 +13657,7 @@
       <c r="J983" s="11"/>
       <c r="K983" s="11"/>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A984" s="9"/>
       <c r="C984" s="10"/>
       <c r="D984" s="11"/>
@@ -13676,7 +13669,7 @@
       <c r="J984" s="11"/>
       <c r="K984" s="11"/>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A985" s="9"/>
       <c r="C985" s="10"/>
       <c r="D985" s="11"/>
@@ -13688,7 +13681,7 @@
       <c r="J985" s="11"/>
       <c r="K985" s="11"/>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A986" s="9"/>
       <c r="C986" s="10"/>
       <c r="D986" s="11"/>
@@ -13700,7 +13693,7 @@
       <c r="J986" s="11"/>
       <c r="K986" s="11"/>
     </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A987" s="9"/>
       <c r="C987" s="10"/>
       <c r="D987" s="11"/>
@@ -13712,7 +13705,7 @@
       <c r="J987" s="11"/>
       <c r="K987" s="11"/>
     </row>
-    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A988" s="9"/>
       <c r="C988" s="10"/>
       <c r="D988" s="11"/>
@@ -13724,7 +13717,7 @@
       <c r="J988" s="11"/>
       <c r="K988" s="11"/>
     </row>
-    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A989" s="9"/>
       <c r="C989" s="10"/>
       <c r="D989" s="11"/>
@@ -13736,7 +13729,7 @@
       <c r="J989" s="11"/>
       <c r="K989" s="11"/>
     </row>
-    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A990" s="9"/>
       <c r="C990" s="10"/>
       <c r="D990" s="11"/>
@@ -13748,7 +13741,7 @@
       <c r="J990" s="11"/>
       <c r="K990" s="11"/>
     </row>
-    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A991" s="9"/>
       <c r="C991" s="10"/>
       <c r="D991" s="11"/>
@@ -13760,7 +13753,7 @@
       <c r="J991" s="11"/>
       <c r="K991" s="11"/>
     </row>
-    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A992" s="9"/>
       <c r="C992" s="10"/>
       <c r="D992" s="11"/>
@@ -13772,7 +13765,7 @@
       <c r="J992" s="11"/>
       <c r="K992" s="11"/>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A993" s="9"/>
       <c r="C993" s="10"/>
       <c r="D993" s="11"/>
@@ -13784,7 +13777,7 @@
       <c r="J993" s="11"/>
       <c r="K993" s="11"/>
     </row>
-    <row r="994" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A994" s="9"/>
       <c r="C994" s="10"/>
       <c r="D994" s="11"/>
@@ -13796,7 +13789,7 @@
       <c r="J994" s="11"/>
       <c r="K994" s="11"/>
     </row>
-    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A995" s="9"/>
       <c r="C995" s="10"/>
       <c r="D995" s="11"/>
@@ -13808,7 +13801,7 @@
       <c r="J995" s="11"/>
       <c r="K995" s="11"/>
     </row>
-    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A996" s="9"/>
       <c r="C996" s="10"/>
       <c r="D996" s="11"/>
@@ -13820,7 +13813,7 @@
       <c r="J996" s="11"/>
       <c r="K996" s="11"/>
     </row>
-    <row r="997" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A997" s="9"/>
       <c r="C997" s="10"/>
       <c r="D997" s="11"/>
@@ -13832,7 +13825,7 @@
       <c r="J997" s="11"/>
       <c r="K997" s="11"/>
     </row>
-    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A998" s="9"/>
       <c r="C998" s="10"/>
       <c r="D998" s="11"/>
@@ -13844,7 +13837,7 @@
       <c r="J998" s="11"/>
       <c r="K998" s="11"/>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A999" s="9"/>
       <c r="C999" s="10"/>
       <c r="D999" s="11"/>
@@ -13872,8 +13865,6 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/R1_201908/Country/USD/TH/PHILIPPINES_201908_USD_TH.xlsx
+++ b/Output/R1_201908/Country/USD/TH/PHILIPPINES_201908_USD_TH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\Output\R1_201908\Country\USD\TH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFAB8C8-357A-42FF-893C-58EEB42CF735}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73228A37-0A88-472B-BA6E-4E9FADAFBB7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="1572" windowWidth="19572" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USD_TH" sheetId="1" r:id="rId1"/>
@@ -2734,8 +2734,8 @@
       </c>
       <c r="H73" s="18"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
@@ -13854,7 +13854,7 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G73:K73"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
